--- a/Files/Disciplinas/Ofertas de Disciplinas - UFMG PPGCC.xlsx
+++ b/Files/Disciplinas/Ofertas de Disciplinas - UFMG PPGCC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\MiscDocs_PPGCC\Files\Disciplinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FB54FB-8E15-48FF-B033-9BE1BC9A2E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D155294E-3095-4DD2-ABBD-8667C559D03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27503,8 +27503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8845D368-D378-470C-9700-35D404534B1B}">
   <dimension ref="A1:T507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A507" sqref="A1:T507"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Files/Disciplinas/Ofertas de Disciplinas - UFMG PPGCC.xlsx
+++ b/Files/Disciplinas/Ofertas de Disciplinas - UFMG PPGCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\MiscDocs_PPGCC\Files\Disciplinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D155294E-3095-4DD2-ABBD-8667C559D03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56532560-5477-4185-8084-765696C52E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="980" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025.1 horários JV" sheetId="28" r:id="rId1"/>
@@ -24458,7 +24458,7 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D14" activeCellId="1" sqref="F14 D14"/>
     </sheetView>
   </sheetViews>
@@ -27503,7 +27503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8845D368-D378-470C-9700-35D404534B1B}">
   <dimension ref="A1:T507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>

--- a/Files/Disciplinas/Ofertas de Disciplinas - UFMG PPGCC.xlsx
+++ b/Files/Disciplinas/Ofertas de Disciplinas - UFMG PPGCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\MiscDocs_PPGCC\Files\Disciplinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D861CA6-50DD-45B8-AF76-545D9038A3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DB5CE-AE02-494D-9592-A37EFFECDD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="980" firstSheet="2" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9082" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9083" uniqueCount="1075">
   <si>
     <t>Nome da Atividade</t>
   </si>
@@ -3233,22 +3233,6 @@
   </si>
   <si>
     <t>cancelada</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TECC: Bancos de Dados Geográficos
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Godovesi Davái</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3264,22 +3248,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Flávio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TECC: Métodos Formais
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hamiel</t>
     </r>
   </si>
   <si>
@@ -3702,12 +3670,44 @@
       <t>Ítalo</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TECC: Métodos Formais
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Haniel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TECC: Bancos de Dados Geográficos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clodoveu Davis</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3849,6 +3849,13 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -4564,7 +4571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5071,7 +5078,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -5250,7 +5262,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -11550,7 +11562,7 @@
     <tableColumn id="6" xr3:uid="{810BEAB3-711C-4133-9BA3-3A7D37EFC94C}" name="QUI" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{68739D62-0C71-48FE-88CA-95B7A45FA9D7}" name="SEX" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -50558,7 +50570,7 @@
     <col min="21" max="21" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="220.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="210" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="155" t="s">
         <v>783</v>
       </c>
@@ -52126,14 +52138,14 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="36.5546875" customWidth="1"/>
     <col min="5" max="5" width="33.88671875" customWidth="1"/>
@@ -52155,22 +52167,22 @@
     </row>
     <row r="2" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="190" t="s">
         <v>1001</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="191" t="s">
         <v>102</v>
       </c>
       <c r="H2" s="1"/>
@@ -52182,11 +52194,11 @@
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G3" s="180"/>
       <c r="H3" s="1"/>
@@ -52198,11 +52210,11 @@
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G4" s="181"/>
       <c r="H4" s="1"/>
@@ -52214,11 +52226,11 @@
       </c>
       <c r="C5" s="138"/>
       <c r="D5" s="138" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E5" s="138"/>
       <c r="F5" s="138" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G5" s="182"/>
       <c r="H5" s="1"/>
@@ -52229,19 +52241,19 @@
         <v>109</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G6" s="183" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -52251,19 +52263,19 @@
         <v>109</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G7" s="183" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -52273,16 +52285,16 @@
         <v>109</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>1048</v>
+        <v>1073</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>1048</v>
+        <v>1073</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G8" s="183"/>
       <c r="H8" s="1"/>
@@ -52293,11 +52305,11 @@
         <v>109</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="183"/>
@@ -52309,16 +52321,16 @@
         <v>110</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G10" s="184"/>
       <c r="H10" s="1"/>
@@ -52329,16 +52341,16 @@
         <v>110</v>
       </c>
       <c r="C11" s="43" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>1056</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>1058</v>
-      </c>
       <c r="E11" s="43" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F11" s="43" t="s">
         <v>1056</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>1058</v>
       </c>
       <c r="G11" s="184"/>
       <c r="H11" s="1"/>
@@ -52352,7 +52364,7 @@
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="G12" s="184"/>
       <c r="H12" s="1"/>
@@ -52363,16 +52375,16 @@
         <v>111</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G13" s="185"/>
       <c r="H13" s="1"/>
@@ -52383,16 +52395,16 @@
         <v>111</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G14" s="185"/>
       <c r="H14" s="1"/>
@@ -52403,16 +52415,16 @@
         <v>111</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G15" s="185"/>
       <c r="H15" s="1"/>
@@ -52423,16 +52435,16 @@
         <v>111</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="G16" s="185"/>
       <c r="H16" s="1"/>
@@ -52443,16 +52455,16 @@
         <v>111</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G17" s="185"/>
       <c r="H17" s="1"/>
@@ -52463,10 +52475,12 @@
         <v>112</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
+      <c r="E18" s="187" t="s">
+        <v>1059</v>
+      </c>
       <c r="F18" s="188"/>
       <c r="G18" s="189"/>
       <c r="H18" s="1"/>
@@ -52499,9 +52513,9 @@
       <c r="A21" s="1"/>
       <c r="B21" s="126"/>
       <c r="C21" s="131" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D21" s="190" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D21" s="179" t="s">
         <v>1009</v>
       </c>
       <c r="E21" s="126"/>

--- a/Files/Disciplinas/Ofertas de Disciplinas - UFMG PPGCC.xlsx
+++ b/Files/Disciplinas/Ofertas de Disciplinas - UFMG PPGCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\MiscDocs_PPGCC\Files\Disciplinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9268B951-6700-4172-83B4-6341C4B11ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2502DE95-E54F-4BF9-9A9B-086FBCE4AEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="980" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="980" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025.1 horários JV" sheetId="28" state="hidden" r:id="rId1"/>
@@ -11643,15 +11643,14 @@
   <autoFilter ref="A1:U539" xr:uid="{A810F8D3-4DFA-4854-9639-B6ED98FA0A00}">
     <filterColumn colId="5">
       <filters>
-        <filter val="TCC/TSI/TECC: Criptografia Teórica"/>
-        <filter val="TECC: Blockchain e criptomoedas: conceitos básicos e avançados"/>
-        <filter val="TECC: Criptografia Aplicada"/>
-        <filter val="TECC: Criptografia Teórica e Protocolos de Consenso"/>
+        <filter val="Robótica Móvel"/>
+        <filter val="TECC: Aprendizado por Reforço"/>
+        <filter val="TECC: Aprendizado Profundo"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U539">
-    <sortCondition ref="E1:E539"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A86:U522">
+    <sortCondition ref="F1:F539"/>
   </sortState>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{79E4DABF-36BF-4FB8-BEA1-B4F3DC5D0089}" name="Ano"/>
@@ -12666,7 +12665,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="A2:P24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13305,7 +13304,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14168,7 +14167,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14992,7 +14991,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16006,7 +16005,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16898,7 +16897,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -16961,7 +16960,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18176,7 +18175,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19145,7 +19144,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="A2:P28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20083,7 +20082,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="A2:P28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20940,7 +20939,7 @@
   <dimension ref="A1:U539"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F159" sqref="F159"/>
+      <selection activeCell="A519" sqref="A519:J520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23095,7 +23094,7 @@
       <c r="T41" s="71"/>
       <c r="U41" s="71"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -23149,7 +23148,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -23203,7 +23202,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -25377,23 +25376,24 @@
       </c>
       <c r="U85" s="71"/>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86">
-        <v>6</v>
-      </c>
+      <c r="C86" s="138">
+        <v>15</v>
+      </c>
+      <c r="D86" s="139"/>
       <c r="E86" t="s">
-        <v>119</v>
+        <v>334</v>
       </c>
       <c r="F86" t="s">
-        <v>818</v>
-      </c>
-      <c r="G86" s="5">
+        <v>335</v>
+      </c>
+      <c r="G86" s="140">
         <v>60</v>
       </c>
       <c r="H86" s="140">
@@ -25401,48 +25401,44 @@
         <v>4</v>
       </c>
       <c r="I86" t="s">
-        <v>141</v>
-      </c>
-      <c r="J86" t="s">
-        <v>256</v>
-      </c>
-      <c r="K86">
-        <v>20</v>
-      </c>
-      <c r="L86" s="165" t="s">
-        <v>982</v>
-      </c>
-      <c r="M86" s="181" t="s">
-        <v>986</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="J86" s="71" t="s">
+        <v>966</v>
+      </c>
+      <c r="K86" s="71" t="s">
+        <v>998</v>
+      </c>
+      <c r="L86" s="164" t="s">
+        <v>984</v>
+      </c>
+      <c r="M86" s="179" t="s">
+        <v>989</v>
+      </c>
+      <c r="P86" s="141"/>
       <c r="Q86" s="5"/>
-      <c r="R86" s="168" t="s">
-        <v>464</v>
-      </c>
-      <c r="S86" s="172" t="s">
-        <v>143</v>
-      </c>
-      <c r="T86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="219"/>
       <c r="U86" s="71"/>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="116">
-        <v>2025</v>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2018</v>
       </c>
       <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>16</v>
-      </c>
-      <c r="D87" s="146">
-        <v>45727</v>
-      </c>
-      <c r="E87" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="F87" s="71" t="s">
-        <v>818</v>
+        <v>2</v>
+      </c>
+      <c r="C87" s="138">
+        <v>12</v>
+      </c>
+      <c r="D87" s="139">
+        <v>43326</v>
+      </c>
+      <c r="E87" t="s">
+        <v>334</v>
+      </c>
+      <c r="F87" t="s">
+        <v>335</v>
       </c>
       <c r="G87" s="140">
         <v>60</v>
@@ -25451,130 +25447,131 @@
         <f>Tabela28[[#This Row],[CH]]/15</f>
         <v>4</v>
       </c>
-      <c r="I87" s="71" t="s">
-        <v>180</v>
+      <c r="I87" t="s">
+        <v>200</v>
       </c>
       <c r="J87" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="K87" s="71"/>
+        <v>966</v>
+      </c>
+      <c r="K87" s="71" t="s">
+        <v>998</v>
+      </c>
       <c r="L87" s="165" t="s">
         <v>982</v>
       </c>
-      <c r="M87" s="181" t="s">
-        <v>986</v>
-      </c>
-      <c r="N87" s="71"/>
-      <c r="O87" s="71" t="s">
-        <v>875</v>
-      </c>
-      <c r="P87" s="141" t="s">
-        <v>882</v>
-      </c>
-      <c r="Q87" s="169" t="s">
-        <v>866</v>
-      </c>
+      <c r="M87" s="180" t="s">
+        <v>985</v>
+      </c>
+      <c r="P87" s="141">
+        <v>2015</v>
+      </c>
+      <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-      <c r="S87" s="225" t="s">
-        <v>209</v>
-      </c>
+      <c r="S87" s="219"/>
       <c r="U87" s="71"/>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="138">
-        <v>6</v>
-      </c>
-      <c r="D88" s="139">
-        <v>45152</v>
-      </c>
-      <c r="E88" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="F88" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="G88" s="148"/>
-      <c r="H88" s="140"/>
-      <c r="I88" s="71" t="s">
-        <v>126</v>
+        <v>4</v>
+      </c>
+      <c r="D88" s="142">
+        <v>44335</v>
+      </c>
+      <c r="E88" s="104" t="s">
+        <v>334</v>
+      </c>
+      <c r="F88" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="G88" s="143">
+        <v>60</v>
+      </c>
+      <c r="H88" s="140">
+        <f>Tabela28[[#This Row],[CH]]/15</f>
+        <v>4</v>
+      </c>
+      <c r="I88" s="104" t="s">
+        <v>200</v>
       </c>
       <c r="J88" s="71" t="s">
-        <v>921</v>
+        <v>966</v>
       </c>
       <c r="K88" s="71"/>
       <c r="L88" s="164" t="s">
         <v>984</v>
       </c>
-      <c r="M88" s="179" t="s">
-        <v>989</v>
+      <c r="M88" s="181" t="s">
+        <v>986</v>
       </c>
       <c r="N88" s="71"/>
       <c r="O88" s="71"/>
-      <c r="P88" s="141">
-        <v>2013</v>
-      </c>
-      <c r="Q88" s="169" t="s">
-        <v>866</v>
-      </c>
-      <c r="R88" s="168" t="s">
-        <v>464</v>
-      </c>
-      <c r="S88" s="219" t="s">
-        <v>209</v>
+      <c r="P88" s="141"/>
+      <c r="Q88" s="172" t="s">
+        <v>867</v>
+      </c>
+      <c r="R88" s="5"/>
+      <c r="S88" s="222" t="s">
+        <v>255</v>
       </c>
       <c r="T88" s="71"/>
       <c r="U88" s="71"/>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
-        <v>119</v>
-      </c>
-      <c r="F89" t="s">
-        <v>185</v>
-      </c>
-      <c r="G89" s="5">
+      <c r="C89" s="138">
+        <v>5</v>
+      </c>
+      <c r="D89" s="139"/>
+      <c r="E89" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="F89" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="G89" s="143">
         <v>60</v>
       </c>
       <c r="H89" s="140">
         <f>Tabela28[[#This Row],[CH]]/15</f>
         <v>4</v>
       </c>
-      <c r="I89" t="s">
-        <v>122</v>
-      </c>
-      <c r="J89" t="s">
-        <v>692</v>
-      </c>
-      <c r="K89">
-        <v>40</v>
-      </c>
-      <c r="L89" s="165" t="s">
-        <v>982</v>
-      </c>
-      <c r="M89" s="206" t="s">
-        <v>983</v>
-      </c>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="168" t="s">
-        <v>464</v>
-      </c>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
+      <c r="I89" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="J89" s="71" t="s">
+        <v>966</v>
+      </c>
+      <c r="K89" s="71"/>
+      <c r="L89" s="164" t="s">
+        <v>984</v>
+      </c>
+      <c r="M89" s="180" t="s">
+        <v>985</v>
+      </c>
+      <c r="N89" s="59"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="141"/>
+      <c r="Q89" s="172" t="s">
+        <v>867</v>
+      </c>
+      <c r="R89" s="5"/>
+      <c r="S89" s="222" t="s">
+        <v>209</v>
+      </c>
+      <c r="T89" s="59" t="s">
+        <v>626</v>
+      </c>
       <c r="U89" s="71"/>
     </row>
     <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -26676,7 +26673,7 @@
       <c r="T110" s="71"/>
       <c r="U110" s="71"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2024</v>
       </c>
@@ -29085,7 +29082,7 @@
       <c r="T157" s="71"/>
       <c r="U157" s="71"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="116">
         <v>2025</v>
       </c>
@@ -29138,7 +29135,7 @@
       <c r="S158" s="226"/>
       <c r="U158" s="71"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2019</v>
       </c>
@@ -47136,23 +47133,21 @@
       <c r="S515" s="219"/>
       <c r="U515" s="71"/>
     </row>
-    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C516" s="138">
-        <v>4</v>
-      </c>
-      <c r="D516" s="142">
-        <v>44335</v>
-      </c>
-      <c r="E516" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D516" s="139"/>
+      <c r="E516" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="F516" s="104" t="s">
+      <c r="F516" s="59" t="s">
         <v>335</v>
       </c>
       <c r="G516" s="143">
@@ -47162,41 +47157,47 @@
         <f>Tabela28[[#This Row],[CH]]/15</f>
         <v>4</v>
       </c>
-      <c r="I516" s="104" t="s">
+      <c r="I516" s="59" t="s">
         <v>200</v>
       </c>
       <c r="J516" s="71" t="s">
         <v>966</v>
       </c>
       <c r="K516" s="71"/>
-      <c r="L516" s="164" t="s">
-        <v>984</v>
-      </c>
-      <c r="M516" s="181" t="s">
-        <v>986</v>
+      <c r="L516" s="165" t="s">
+        <v>982</v>
+      </c>
+      <c r="M516" s="180" t="s">
+        <v>985</v>
       </c>
       <c r="N516" s="71"/>
-      <c r="O516" s="71"/>
-      <c r="P516" s="141"/>
+      <c r="O516" s="71" t="s">
+        <v>874</v>
+      </c>
+      <c r="P516" s="145">
+        <v>2016</v>
+      </c>
       <c r="Q516" s="172" t="s">
         <v>867</v>
       </c>
-      <c r="R516" s="5"/>
+      <c r="R516" s="168" t="s">
+        <v>464</v>
+      </c>
       <c r="S516" s="222" t="s">
         <v>255</v>
       </c>
       <c r="T516" s="71"/>
       <c r="U516" s="71"/>
     </row>
-    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C517" s="138">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D517" s="139"/>
       <c r="E517" s="59" t="s">
@@ -47219,112 +47220,106 @@
         <v>966</v>
       </c>
       <c r="K517" s="71"/>
-      <c r="L517" s="164" t="s">
-        <v>984</v>
-      </c>
-      <c r="M517" s="180" t="s">
-        <v>985</v>
-      </c>
-      <c r="N517" s="59"/>
-      <c r="O517" s="59"/>
-      <c r="P517" s="141"/>
-      <c r="Q517" s="172" t="s">
-        <v>867</v>
-      </c>
+      <c r="L517" s="165" t="s">
+        <v>982</v>
+      </c>
+      <c r="M517" s="181" t="s">
+        <v>986</v>
+      </c>
+      <c r="N517" s="71"/>
+      <c r="O517" s="71" t="s">
+        <v>873</v>
+      </c>
+      <c r="P517" s="145">
+        <v>2009</v>
+      </c>
+      <c r="Q517" s="5"/>
       <c r="R517" s="5"/>
       <c r="S517" s="222" t="s">
         <v>209</v>
       </c>
-      <c r="T517" s="59" t="s">
-        <v>626</v>
-      </c>
+      <c r="T517" s="71"/>
       <c r="U517" s="71"/>
     </row>
-    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B518">
         <v>2</v>
       </c>
-      <c r="C518" s="138">
-        <v>5</v>
-      </c>
-      <c r="D518" s="139"/>
-      <c r="E518" s="59" t="s">
+      <c r="C518">
+        <v>32</v>
+      </c>
+      <c r="E518" t="s">
         <v>334</v>
       </c>
-      <c r="F518" s="59" t="s">
+      <c r="F518" t="s">
         <v>335</v>
       </c>
-      <c r="G518" s="143">
+      <c r="G518" s="5">
         <v>60</v>
       </c>
       <c r="H518" s="140">
         <f>Tabela28[[#This Row],[CH]]/15</f>
         <v>4</v>
       </c>
-      <c r="I518" s="59" t="s">
+      <c r="I518" t="s">
         <v>200</v>
       </c>
       <c r="J518" s="71" t="s">
         <v>966</v>
       </c>
-      <c r="K518" s="71"/>
+      <c r="K518">
+        <v>20</v>
+      </c>
       <c r="L518" s="165" t="s">
         <v>982</v>
       </c>
-      <c r="M518" s="180" t="s">
-        <v>985</v>
-      </c>
-      <c r="N518" s="71"/>
-      <c r="O518" s="71" t="s">
-        <v>874</v>
-      </c>
-      <c r="P518" s="145">
-        <v>2016</v>
-      </c>
-      <c r="Q518" s="172" t="s">
-        <v>867</v>
-      </c>
+      <c r="M518" s="177" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q518" s="5"/>
       <c r="R518" s="168" t="s">
         <v>464</v>
       </c>
-      <c r="S518" s="222" t="s">
-        <v>255</v>
-      </c>
-      <c r="T518" s="71"/>
+      <c r="S518" s="172" t="s">
+        <v>143</v>
+      </c>
+      <c r="T518" s="5"/>
       <c r="U518" s="71"/>
     </row>
-    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A519">
-        <v>2024</v>
+    <row r="519" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A519" s="116">
+        <v>2025</v>
       </c>
       <c r="B519">
         <v>1</v>
       </c>
-      <c r="C519" s="138">
-        <v>7</v>
-      </c>
-      <c r="D519" s="139"/>
-      <c r="E519" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="F519" s="59" t="s">
-        <v>335</v>
-      </c>
-      <c r="G519" s="143">
+      <c r="C519">
+        <v>16</v>
+      </c>
+      <c r="D519" s="146">
+        <v>45727</v>
+      </c>
+      <c r="E519" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="F519" s="71" t="s">
+        <v>818</v>
+      </c>
+      <c r="G519" s="140">
         <v>60</v>
       </c>
       <c r="H519" s="140">
         <f>Tabela28[[#This Row],[CH]]/15</f>
         <v>4</v>
       </c>
-      <c r="I519" s="59" t="s">
-        <v>200</v>
+      <c r="I519" s="71" t="s">
+        <v>180</v>
       </c>
       <c r="J519" s="71" t="s">
-        <v>966</v>
+        <v>256</v>
       </c>
       <c r="K519" s="71"/>
       <c r="L519" s="165" t="s">
@@ -47335,39 +47330,37 @@
       </c>
       <c r="N519" s="71"/>
       <c r="O519" s="71" t="s">
-        <v>873</v>
-      </c>
-      <c r="P519" s="145">
-        <v>2009</v>
-      </c>
-      <c r="Q519" s="5"/>
+        <v>875</v>
+      </c>
+      <c r="P519" s="141" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q519" s="169" t="s">
+        <v>866</v>
+      </c>
       <c r="R519" s="5"/>
-      <c r="S519" s="222" t="s">
+      <c r="S519" s="225" t="s">
         <v>209</v>
       </c>
-      <c r="T519" s="71"/>
       <c r="U519" s="71"/>
     </row>
-    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="B520">
         <v>2</v>
       </c>
-      <c r="C520" s="138">
-        <v>12</v>
-      </c>
-      <c r="D520" s="139">
-        <v>43326</v>
+      <c r="C520">
+        <v>6</v>
       </c>
       <c r="E520" t="s">
-        <v>334</v>
+        <v>119</v>
       </c>
       <c r="F520" t="s">
-        <v>335</v>
-      </c>
-      <c r="G520" s="140">
+        <v>818</v>
+      </c>
+      <c r="G520" s="5">
         <v>60</v>
       </c>
       <c r="H520" s="140">
@@ -47375,74 +47368,82 @@
         <v>4</v>
       </c>
       <c r="I520" t="s">
-        <v>200</v>
-      </c>
-      <c r="J520" s="71" t="s">
-        <v>966</v>
-      </c>
-      <c r="K520" s="71" t="s">
-        <v>998</v>
+        <v>141</v>
+      </c>
+      <c r="J520" t="s">
+        <v>256</v>
+      </c>
+      <c r="K520">
+        <v>20</v>
       </c>
       <c r="L520" s="165" t="s">
         <v>982</v>
       </c>
-      <c r="M520" s="180" t="s">
-        <v>985</v>
-      </c>
-      <c r="P520" s="141">
-        <v>2015</v>
+      <c r="M520" s="181" t="s">
+        <v>986</v>
       </c>
       <c r="Q520" s="5"/>
-      <c r="R520" s="5"/>
-      <c r="S520" s="219"/>
+      <c r="R520" s="168" t="s">
+        <v>464</v>
+      </c>
+      <c r="S520" s="172" t="s">
+        <v>143</v>
+      </c>
+      <c r="T520" s="5"/>
       <c r="U520" s="71"/>
     </row>
-    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="B521">
         <v>2</v>
       </c>
       <c r="C521" s="138">
-        <v>15</v>
-      </c>
-      <c r="D521" s="139"/>
-      <c r="E521" t="s">
-        <v>334</v>
-      </c>
-      <c r="F521" t="s">
-        <v>335</v>
-      </c>
-      <c r="G521" s="140">
-        <v>60</v>
-      </c>
-      <c r="H521" s="140">
-        <f>Tabela28[[#This Row],[CH]]/15</f>
-        <v>4</v>
-      </c>
-      <c r="I521" t="s">
-        <v>200</v>
+        <v>6</v>
+      </c>
+      <c r="D521" s="139">
+        <v>45152</v>
+      </c>
+      <c r="E521" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="F521" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="G521" s="148"/>
+      <c r="H521" s="140"/>
+      <c r="I521" s="71" t="s">
+        <v>126</v>
       </c>
       <c r="J521" s="71" t="s">
-        <v>966</v>
-      </c>
-      <c r="K521" s="71" t="s">
-        <v>998</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="K521" s="71"/>
       <c r="L521" s="164" t="s">
         <v>984</v>
       </c>
       <c r="M521" s="179" t="s">
         <v>989</v>
       </c>
-      <c r="P521" s="141"/>
-      <c r="Q521" s="5"/>
-      <c r="R521" s="5"/>
-      <c r="S521" s="219"/>
+      <c r="N521" s="71"/>
+      <c r="O521" s="71"/>
+      <c r="P521" s="141">
+        <v>2013</v>
+      </c>
+      <c r="Q521" s="169" t="s">
+        <v>866</v>
+      </c>
+      <c r="R521" s="168" t="s">
+        <v>464</v>
+      </c>
+      <c r="S521" s="219" t="s">
+        <v>209</v>
+      </c>
+      <c r="T521" s="71"/>
       <c r="U521" s="71"/>
     </row>
-    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2025</v>
       </c>
@@ -47450,13 +47451,13 @@
         <v>2</v>
       </c>
       <c r="C522">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E522" t="s">
-        <v>334</v>
+        <v>119</v>
       </c>
       <c r="F522" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="G522" s="5">
         <v>60</v>
@@ -47466,27 +47467,25 @@
         <v>4</v>
       </c>
       <c r="I522" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="J522" t="s">
-        <v>188</v>
+        <v>692</v>
       </c>
       <c r="K522">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L522" s="165" t="s">
         <v>982</v>
       </c>
-      <c r="M522" s="177" t="s">
-        <v>988</v>
+      <c r="M522" s="206" t="s">
+        <v>983</v>
       </c>
       <c r="Q522" s="5"/>
       <c r="R522" s="168" t="s">
         <v>464</v>
       </c>
-      <c r="S522" s="172" t="s">
-        <v>143</v>
-      </c>
+      <c r="S522" s="5"/>
       <c r="T522" s="5"/>
       <c r="U522" s="71"/>
     </row>
@@ -48620,7 +48619,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49541,7 +49540,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50547,7 +50546,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52055,7 +52054,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53151,7 +53150,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54267,7 +54266,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58029,36 +58028,36 @@
   </sheetPr>
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="217.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="210" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="150" t="s">
         <v>783</v>
       </c>
@@ -59909,19 +59908,19 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" customWidth="1"/>
-    <col min="6" max="6" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" hidden="1"/>
   </cols>
@@ -60394,7 +60393,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61579,9 +61578,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -61982,7 +61982,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62999,7 +62999,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" activeCellId="1" sqref="F14 D14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -63371,7 +63371,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Files/Disciplinas/Ofertas de Disciplinas - UFMG PPGCC.xlsx
+++ b/Files/Disciplinas/Ofertas de Disciplinas - UFMG PPGCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\MiscDocs_PPGCC\Files\Disciplinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2502DE95-E54F-4BF9-9A9B-086FBCE4AEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567C64C0-D57B-4534-AC64-5E5F573DFF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="980" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="980" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025.1 horários JV" sheetId="28" state="hidden" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9659" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9673" uniqueCount="1090">
   <si>
     <t>Nome da Atividade</t>
   </si>
@@ -3738,9 +3738,6 @@
     <t>https://chat.whatsapp.com/GzKFmbk6P8zLDlMXK10UYm</t>
   </si>
   <si>
-    <t>https://chat.whatsapp.com/Eo4dvnuf6fRFqFIu5qD7fB</t>
-  </si>
-  <si>
     <t>https://chat.whatsapp.com/JFSmFs5nVvX4koFjAiCJYF</t>
   </si>
   <si>
@@ -3775,6 +3772,15 @@
   </si>
   <si>
     <t>https://chat.whatsapp.com/KnBmOy9CKXm3rUxrGTEnFW</t>
+  </si>
+  <si>
+    <t>Renato Antônio</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/HTCrxVZeOOnIlFDYP9jTLM</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/BSssIC3O0f3DnGDmZdAdvP</t>
   </si>
 </sst>
 </file>
@@ -4773,7 +4779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5409,12 +5415,50 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="363">
+  <dxfs count="365">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -11352,12 +11396,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFFC5D3"/>
       <color rgb="FFBAE5EC"/>
       <color rgb="FFAEC6CF"/>
       <color rgb="FFFBA3EE"/>
       <color rgb="FFB5F6FD"/>
-      <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
   <extLst>
@@ -11372,274 +11416,274 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{1A4430D1-9A34-4F1B-8500-8A5F3C95C616}" name="Tabela22526" displayName="Tabela22526" ref="B2:G15" totalsRowShown="0" headerRowDxfId="362" headerRowBorderDxfId="361" tableBorderDxfId="360">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{1A4430D1-9A34-4F1B-8500-8A5F3C95C616}" name="Tabela22526" displayName="Tabela22526" ref="B2:G15" totalsRowShown="0" headerRowDxfId="364" headerRowBorderDxfId="363" tableBorderDxfId="362">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3E10CEB3-06AD-40E9-B1D5-D15032B7CB81}" name="Horário Início" dataDxfId="359"/>
-    <tableColumn id="3" xr3:uid="{567E5AB8-A366-4DE2-8FC6-EDBF244F5952}" name="SEG" dataDxfId="358"/>
-    <tableColumn id="4" xr3:uid="{CCBE96E2-40E3-49E7-9C5E-FAF61306DCF8}" name="TER" dataDxfId="357"/>
-    <tableColumn id="5" xr3:uid="{8AE129B6-D6F5-476A-ADA3-C163D0794EAE}" name="QUA" dataDxfId="356"/>
-    <tableColumn id="6" xr3:uid="{4260F21D-E93B-4841-A0F0-EFFD3CA7FCAC}" name="QUI" dataDxfId="355"/>
-    <tableColumn id="7" xr3:uid="{07C110F5-C88D-4F84-B169-1066197181CE}" name="SEX" dataDxfId="354"/>
+    <tableColumn id="1" xr3:uid="{3E10CEB3-06AD-40E9-B1D5-D15032B7CB81}" name="Horário Início" dataDxfId="361"/>
+    <tableColumn id="3" xr3:uid="{567E5AB8-A366-4DE2-8FC6-EDBF244F5952}" name="SEG" dataDxfId="360"/>
+    <tableColumn id="4" xr3:uid="{CCBE96E2-40E3-49E7-9C5E-FAF61306DCF8}" name="TER" dataDxfId="359"/>
+    <tableColumn id="5" xr3:uid="{8AE129B6-D6F5-476A-ADA3-C163D0794EAE}" name="QUA" dataDxfId="358"/>
+    <tableColumn id="6" xr3:uid="{4260F21D-E93B-4841-A0F0-EFFD3CA7FCAC}" name="QUI" dataDxfId="357"/>
+    <tableColumn id="7" xr3:uid="{07C110F5-C88D-4F84-B169-1066197181CE}" name="SEX" dataDxfId="356"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5DBA7352-39E4-434A-891C-DBDE6BE6A829}" name="Tabela18" displayName="Tabela18" ref="A1:P22" totalsRowShown="0" headerRowDxfId="259" dataDxfId="258">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5DBA7352-39E4-434A-891C-DBDE6BE6A829}" name="Tabela18" displayName="Tabela18" ref="A1:P22" totalsRowShown="0" headerRowDxfId="261" dataDxfId="260">
   <autoFilter ref="A1:P22" xr:uid="{5DBA7352-39E4-434A-891C-DBDE6BE6A829}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{543341E7-47C5-4B6A-88BA-7F16DBAB332F}" name="#" dataDxfId="257"/>
-    <tableColumn id="2" xr3:uid="{527A25C5-CF0B-4A1F-BF47-6C79667B3C9E}" name="Código" dataDxfId="256"/>
-    <tableColumn id="3" xr3:uid="{A0376CE2-42D7-4EC3-9FEE-CC3598E1624B}" name="Disciplina" dataDxfId="255"/>
-    <tableColumn id="4" xr3:uid="{E462903D-FB48-4516-8480-EE2818C0EE73}" name="CH" dataDxfId="254"/>
-    <tableColumn id="5" xr3:uid="{4C13E548-FB2F-448F-ACC1-E05934A7C23F}" name="CR" dataDxfId="253"/>
-    <tableColumn id="6" xr3:uid="{84041365-9253-4427-B65B-94E0523AE132}" name="Turma" dataDxfId="252"/>
-    <tableColumn id="7" xr3:uid="{ED65DBA1-E6A1-4FB3-90B2-F0DBFC5AB686}" name="Docente" dataDxfId="251"/>
-    <tableColumn id="8" xr3:uid="{0521E293-3BF7-4A83-ACCA-EB6E2DD4CA32}" name="Composição turma/Alunos a serem atendidos" dataDxfId="250"/>
-    <tableColumn id="9" xr3:uid="{C768A1A4-2A59-47B0-92C8-13FE7CBCD460}" name="Horário" dataDxfId="249"/>
-    <tableColumn id="10" xr3:uid="{CAEAF04F-8D1F-4F15-A1EB-8BF0E911D219}" name="Programa" dataDxfId="248"/>
-    <tableColumn id="11" xr3:uid="{50ACA847-FF56-459F-B2DE-0FD5FC6B51F7}" name="Sala" dataDxfId="247"/>
-    <tableColumn id="12" xr3:uid="{F5AE64C5-2BCD-4808-9A5D-944FAE57CF16}" name="Início das aulas" dataDxfId="246"/>
-    <tableColumn id="13" xr3:uid="{DEE8DF79-1832-48C1-A469-8475E8F99F6A}" name="Isolada" dataDxfId="245"/>
-    <tableColumn id="14" xr3:uid="{551DE7EE-8BCA-490B-AB26-E28F23C5D235}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="244"/>
-    <tableColumn id="15" xr3:uid="{B3534C88-2DBB-44C0-84EB-93BFA6FDC4F7}" name="Plano de ensino" dataDxfId="243"/>
-    <tableColumn id="16" xr3:uid="{470A99C2-AC06-434F-84A6-22E84F02622B}" name="Idioma" dataDxfId="242"/>
+    <tableColumn id="1" xr3:uid="{543341E7-47C5-4B6A-88BA-7F16DBAB332F}" name="#" dataDxfId="259"/>
+    <tableColumn id="2" xr3:uid="{527A25C5-CF0B-4A1F-BF47-6C79667B3C9E}" name="Código" dataDxfId="258"/>
+    <tableColumn id="3" xr3:uid="{A0376CE2-42D7-4EC3-9FEE-CC3598E1624B}" name="Disciplina" dataDxfId="257"/>
+    <tableColumn id="4" xr3:uid="{E462903D-FB48-4516-8480-EE2818C0EE73}" name="CH" dataDxfId="256"/>
+    <tableColumn id="5" xr3:uid="{4C13E548-FB2F-448F-ACC1-E05934A7C23F}" name="CR" dataDxfId="255"/>
+    <tableColumn id="6" xr3:uid="{84041365-9253-4427-B65B-94E0523AE132}" name="Turma" dataDxfId="254"/>
+    <tableColumn id="7" xr3:uid="{ED65DBA1-E6A1-4FB3-90B2-F0DBFC5AB686}" name="Docente" dataDxfId="253"/>
+    <tableColumn id="8" xr3:uid="{0521E293-3BF7-4A83-ACCA-EB6E2DD4CA32}" name="Composição turma/Alunos a serem atendidos" dataDxfId="252"/>
+    <tableColumn id="9" xr3:uid="{C768A1A4-2A59-47B0-92C8-13FE7CBCD460}" name="Horário" dataDxfId="251"/>
+    <tableColumn id="10" xr3:uid="{CAEAF04F-8D1F-4F15-A1EB-8BF0E911D219}" name="Programa" dataDxfId="250"/>
+    <tableColumn id="11" xr3:uid="{50ACA847-FF56-459F-B2DE-0FD5FC6B51F7}" name="Sala" dataDxfId="249"/>
+    <tableColumn id="12" xr3:uid="{F5AE64C5-2BCD-4808-9A5D-944FAE57CF16}" name="Início das aulas" dataDxfId="248"/>
+    <tableColumn id="13" xr3:uid="{DEE8DF79-1832-48C1-A469-8475E8F99F6A}" name="Isolada" dataDxfId="247"/>
+    <tableColumn id="14" xr3:uid="{551DE7EE-8BCA-490B-AB26-E28F23C5D235}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="246"/>
+    <tableColumn id="15" xr3:uid="{B3534C88-2DBB-44C0-84EB-93BFA6FDC4F7}" name="Plano de ensino" dataDxfId="245"/>
+    <tableColumn id="16" xr3:uid="{470A99C2-AC06-434F-84A6-22E84F02622B}" name="Idioma" dataDxfId="244"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B7937FFD-835F-4643-9688-9481D9C820C0}" name="Tabela17" displayName="Tabela17" ref="A1:P31" totalsRowShown="0" headerRowDxfId="241" dataDxfId="240">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B7937FFD-835F-4643-9688-9481D9C820C0}" name="Tabela17" displayName="Tabela17" ref="A1:P31" totalsRowShown="0" headerRowDxfId="243" dataDxfId="242">
   <autoFilter ref="A1:P31" xr:uid="{B7937FFD-835F-4643-9688-9481D9C820C0}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{412D77B0-6CDA-4B0B-8B23-B4272DA6990C}" name="#" dataDxfId="239"/>
-    <tableColumn id="2" xr3:uid="{1C0FAB1D-6A0F-4002-9484-7399358DD7BE}" name="Código" dataDxfId="238"/>
-    <tableColumn id="3" xr3:uid="{5A18AF48-0CD5-4A6D-B519-820931941712}" name="Disciplina" dataDxfId="237"/>
-    <tableColumn id="4" xr3:uid="{26BAC9A0-A652-456E-BA5D-4C0C0B07E2F4}" name="CH" dataDxfId="236"/>
-    <tableColumn id="5" xr3:uid="{1275E1BD-0A50-4C6A-BF61-0842951D60ED}" name="CR" dataDxfId="235"/>
-    <tableColumn id="6" xr3:uid="{1680B66A-B480-428F-88C0-D7512000E3C1}" name="Turma" dataDxfId="234"/>
-    <tableColumn id="7" xr3:uid="{AD70874B-3D28-4C12-B0E1-EC0FE72E6D24}" name="Docente" dataDxfId="233"/>
-    <tableColumn id="8" xr3:uid="{7A29FA9B-1FAE-4A1D-A20B-25885C6B6FA0}" name="Composição turma/Alunos a serem atendidos" dataDxfId="232"/>
-    <tableColumn id="9" xr3:uid="{F4F39986-B0E8-4216-BCAF-3E86D26FA635}" name="Horário" dataDxfId="231"/>
-    <tableColumn id="10" xr3:uid="{6F677AD3-9C76-46F0-8979-031A2638FBB1}" name="Programa" dataDxfId="230"/>
-    <tableColumn id="11" xr3:uid="{BE478CF2-3A05-4C10-B0E0-AD793D29FCC6}" name="Sala" dataDxfId="229"/>
-    <tableColumn id="12" xr3:uid="{9593906E-E40A-4D27-80D6-33D0FF863476}" name="Início das aulas" dataDxfId="228"/>
-    <tableColumn id="13" xr3:uid="{A757CA90-9599-4E56-9175-30BB4E7EB61A}" name="Isolada" dataDxfId="227"/>
-    <tableColumn id="14" xr3:uid="{25480BCA-07A3-4BCE-934B-BA2EC60D4BC2}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="226"/>
-    <tableColumn id="15" xr3:uid="{41CF4F59-3DCB-49A4-818E-80D550364508}" name="Plano de ensino" dataDxfId="225"/>
-    <tableColumn id="16" xr3:uid="{E6533941-7B3B-4959-8B3A-284FB450A417}" name="Idioma" dataDxfId="224"/>
+    <tableColumn id="1" xr3:uid="{412D77B0-6CDA-4B0B-8B23-B4272DA6990C}" name="#" dataDxfId="241"/>
+    <tableColumn id="2" xr3:uid="{1C0FAB1D-6A0F-4002-9484-7399358DD7BE}" name="Código" dataDxfId="240"/>
+    <tableColumn id="3" xr3:uid="{5A18AF48-0CD5-4A6D-B519-820931941712}" name="Disciplina" dataDxfId="239"/>
+    <tableColumn id="4" xr3:uid="{26BAC9A0-A652-456E-BA5D-4C0C0B07E2F4}" name="CH" dataDxfId="238"/>
+    <tableColumn id="5" xr3:uid="{1275E1BD-0A50-4C6A-BF61-0842951D60ED}" name="CR" dataDxfId="237"/>
+    <tableColumn id="6" xr3:uid="{1680B66A-B480-428F-88C0-D7512000E3C1}" name="Turma" dataDxfId="236"/>
+    <tableColumn id="7" xr3:uid="{AD70874B-3D28-4C12-B0E1-EC0FE72E6D24}" name="Docente" dataDxfId="235"/>
+    <tableColumn id="8" xr3:uid="{7A29FA9B-1FAE-4A1D-A20B-25885C6B6FA0}" name="Composição turma/Alunos a serem atendidos" dataDxfId="234"/>
+    <tableColumn id="9" xr3:uid="{F4F39986-B0E8-4216-BCAF-3E86D26FA635}" name="Horário" dataDxfId="233"/>
+    <tableColumn id="10" xr3:uid="{6F677AD3-9C76-46F0-8979-031A2638FBB1}" name="Programa" dataDxfId="232"/>
+    <tableColumn id="11" xr3:uid="{BE478CF2-3A05-4C10-B0E0-AD793D29FCC6}" name="Sala" dataDxfId="231"/>
+    <tableColumn id="12" xr3:uid="{9593906E-E40A-4D27-80D6-33D0FF863476}" name="Início das aulas" dataDxfId="230"/>
+    <tableColumn id="13" xr3:uid="{A757CA90-9599-4E56-9175-30BB4E7EB61A}" name="Isolada" dataDxfId="229"/>
+    <tableColumn id="14" xr3:uid="{25480BCA-07A3-4BCE-934B-BA2EC60D4BC2}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="228"/>
+    <tableColumn id="15" xr3:uid="{41CF4F59-3DCB-49A4-818E-80D550364508}" name="Plano de ensino" dataDxfId="227"/>
+    <tableColumn id="16" xr3:uid="{E6533941-7B3B-4959-8B3A-284FB450A417}" name="Idioma" dataDxfId="226"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{4B9E839E-341F-4BBB-AA45-4546B4E0A9D3}" name="Tabela16" displayName="Tabela16" ref="A1:P23" totalsRowShown="0" headerRowDxfId="223" dataDxfId="221" headerRowBorderDxfId="222" tableBorderDxfId="220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{4B9E839E-341F-4BBB-AA45-4546B4E0A9D3}" name="Tabela16" displayName="Tabela16" ref="A1:P23" totalsRowShown="0" headerRowDxfId="225" dataDxfId="223" headerRowBorderDxfId="224" tableBorderDxfId="222">
   <autoFilter ref="A1:P23" xr:uid="{4B9E839E-341F-4BBB-AA45-4546B4E0A9D3}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{EDC3E353-9A92-43EF-AAD1-205961946D74}" name="#" dataDxfId="219"/>
-    <tableColumn id="2" xr3:uid="{38DF3B45-88BF-4205-9575-4268351834ED}" name="Código" dataDxfId="218"/>
-    <tableColumn id="3" xr3:uid="{77116404-C6DA-462C-9E74-63E924774138}" name="Disciplina" dataDxfId="217"/>
-    <tableColumn id="4" xr3:uid="{88FF952E-44B5-446A-B18F-F15A30434820}" name="CH" dataDxfId="216"/>
-    <tableColumn id="5" xr3:uid="{7D5BD1F3-7E3F-4046-8C38-F0D65B3CCFE2}" name="CR" dataDxfId="215"/>
-    <tableColumn id="6" xr3:uid="{716F8D95-1EC2-4909-B58A-300C37D45F76}" name="Turma" dataDxfId="214"/>
-    <tableColumn id="7" xr3:uid="{22E60654-FDD4-4902-A125-3A4F9458D3F7}" name="Docente" dataDxfId="213"/>
-    <tableColumn id="8" xr3:uid="{4E31A3BE-6222-4798-9F30-E34D567540FD}" name="Composição turma/Alunos a serem atendidos" dataDxfId="212"/>
-    <tableColumn id="9" xr3:uid="{611EE652-9AEE-49AF-B868-0BDF35C0828B}" name="Horário" dataDxfId="211"/>
-    <tableColumn id="10" xr3:uid="{FB4E43A4-247F-494A-A333-A8648ACC8DA8}" name="Programa" dataDxfId="210"/>
-    <tableColumn id="11" xr3:uid="{4E434464-7EDE-4BC6-AA8A-F657ABBBCD27}" name="Sala" dataDxfId="209"/>
-    <tableColumn id="12" xr3:uid="{95822CC3-0A49-4E10-BAF0-F076F6719DE3}" name="Início das aulas" dataDxfId="208"/>
-    <tableColumn id="13" xr3:uid="{ED6663D9-D0D3-4701-A851-8A59FC5E00F1}" name="Isolada" dataDxfId="207"/>
-    <tableColumn id="14" xr3:uid="{1CE441DC-3C74-4E4F-8248-851CDB3AEC1A}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="206"/>
-    <tableColumn id="15" xr3:uid="{A3CF2F10-A040-47E7-99CF-30A6EFB8CFA0}" name="Plano de ensino" dataDxfId="205" dataCellStyle="Hiperlink"/>
-    <tableColumn id="16" xr3:uid="{55C55959-FA1C-4C02-9034-C868FD2210E1}" name="Idioma" dataDxfId="204"/>
+    <tableColumn id="1" xr3:uid="{EDC3E353-9A92-43EF-AAD1-205961946D74}" name="#" dataDxfId="221"/>
+    <tableColumn id="2" xr3:uid="{38DF3B45-88BF-4205-9575-4268351834ED}" name="Código" dataDxfId="220"/>
+    <tableColumn id="3" xr3:uid="{77116404-C6DA-462C-9E74-63E924774138}" name="Disciplina" dataDxfId="219"/>
+    <tableColumn id="4" xr3:uid="{88FF952E-44B5-446A-B18F-F15A30434820}" name="CH" dataDxfId="218"/>
+    <tableColumn id="5" xr3:uid="{7D5BD1F3-7E3F-4046-8C38-F0D65B3CCFE2}" name="CR" dataDxfId="217"/>
+    <tableColumn id="6" xr3:uid="{716F8D95-1EC2-4909-B58A-300C37D45F76}" name="Turma" dataDxfId="216"/>
+    <tableColumn id="7" xr3:uid="{22E60654-FDD4-4902-A125-3A4F9458D3F7}" name="Docente" dataDxfId="215"/>
+    <tableColumn id="8" xr3:uid="{4E31A3BE-6222-4798-9F30-E34D567540FD}" name="Composição turma/Alunos a serem atendidos" dataDxfId="214"/>
+    <tableColumn id="9" xr3:uid="{611EE652-9AEE-49AF-B868-0BDF35C0828B}" name="Horário" dataDxfId="213"/>
+    <tableColumn id="10" xr3:uid="{FB4E43A4-247F-494A-A333-A8648ACC8DA8}" name="Programa" dataDxfId="212"/>
+    <tableColumn id="11" xr3:uid="{4E434464-7EDE-4BC6-AA8A-F657ABBBCD27}" name="Sala" dataDxfId="211"/>
+    <tableColumn id="12" xr3:uid="{95822CC3-0A49-4E10-BAF0-F076F6719DE3}" name="Início das aulas" dataDxfId="210"/>
+    <tableColumn id="13" xr3:uid="{ED6663D9-D0D3-4701-A851-8A59FC5E00F1}" name="Isolada" dataDxfId="209"/>
+    <tableColumn id="14" xr3:uid="{1CE441DC-3C74-4E4F-8248-851CDB3AEC1A}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="208"/>
+    <tableColumn id="15" xr3:uid="{A3CF2F10-A040-47E7-99CF-30A6EFB8CFA0}" name="Plano de ensino" dataDxfId="207" dataCellStyle="Hiperlink"/>
+    <tableColumn id="16" xr3:uid="{55C55959-FA1C-4C02-9034-C868FD2210E1}" name="Idioma" dataDxfId="206"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{59DF5870-AABD-457B-BE66-60B50BE2D35A}" name="Tabela15" displayName="Tabela15" ref="A1:P35" totalsRowShown="0" headerRowDxfId="203" dataDxfId="202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{59DF5870-AABD-457B-BE66-60B50BE2D35A}" name="Tabela15" displayName="Tabela15" ref="A1:P35" totalsRowShown="0" headerRowDxfId="205" dataDxfId="204">
   <autoFilter ref="A1:P35" xr:uid="{59DF5870-AABD-457B-BE66-60B50BE2D35A}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{DF163A98-EADA-4718-9D44-24C3F6A59073}" name="#" dataDxfId="201"/>
-    <tableColumn id="2" xr3:uid="{69BED93F-6B7A-4DF4-A3A0-10425FE74500}" name="Código" dataDxfId="200"/>
-    <tableColumn id="3" xr3:uid="{0987EF64-01CB-47FF-96E3-F7B4B99ECF4B}" name="Disciplina" dataDxfId="199"/>
-    <tableColumn id="4" xr3:uid="{9E2E4550-34DD-4AAE-921B-66714D3DB1D9}" name="CH" dataDxfId="198"/>
-    <tableColumn id="5" xr3:uid="{605268C8-6D76-495A-B7B2-1B7FFFA3993F}" name="CR" dataDxfId="197"/>
-    <tableColumn id="6" xr3:uid="{91C2FE73-1BD2-43BC-B96D-B539C15D7C00}" name="Turma" dataDxfId="196"/>
-    <tableColumn id="7" xr3:uid="{D09BD2EF-C520-450A-BED1-0F582544DBA9}" name="Docente" dataDxfId="195"/>
-    <tableColumn id="8" xr3:uid="{683818FA-F2AF-4481-8193-F7EDC84AF449}" name="Composição turma/Alunos a serem atendidos" dataDxfId="194"/>
-    <tableColumn id="9" xr3:uid="{0024C9DE-7CF2-472F-9086-9DBA4FEF5A67}" name="Horário" dataDxfId="193"/>
-    <tableColumn id="10" xr3:uid="{33454875-F963-46A1-93DB-2EBD75DBF53F}" name="Programa" dataDxfId="192"/>
-    <tableColumn id="11" xr3:uid="{F6E1869E-A951-43DB-8B33-EB1A72891E7A}" name="Sala" dataDxfId="191"/>
-    <tableColumn id="12" xr3:uid="{BE2FEE78-3977-454D-9416-546C1CCEBCE2}" name="Início das aulas" dataDxfId="190"/>
-    <tableColumn id="13" xr3:uid="{22DDA251-DD2E-4E83-BFA6-60FAE7564DAB}" name="Isolada" dataDxfId="189"/>
-    <tableColumn id="14" xr3:uid="{9484E63F-9726-40CF-B1D0-955DEEBB6579}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="188"/>
-    <tableColumn id="15" xr3:uid="{1949F7BC-4800-45E4-9C55-736992C0325D}" name="Plano de ensino" dataDxfId="187" dataCellStyle="Hiperlink"/>
-    <tableColumn id="16" xr3:uid="{C382CA55-4D45-475B-A278-7E6F5923D726}" name="Idioma" dataDxfId="186"/>
+    <tableColumn id="1" xr3:uid="{DF163A98-EADA-4718-9D44-24C3F6A59073}" name="#" dataDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{69BED93F-6B7A-4DF4-A3A0-10425FE74500}" name="Código" dataDxfId="202"/>
+    <tableColumn id="3" xr3:uid="{0987EF64-01CB-47FF-96E3-F7B4B99ECF4B}" name="Disciplina" dataDxfId="201"/>
+    <tableColumn id="4" xr3:uid="{9E2E4550-34DD-4AAE-921B-66714D3DB1D9}" name="CH" dataDxfId="200"/>
+    <tableColumn id="5" xr3:uid="{605268C8-6D76-495A-B7B2-1B7FFFA3993F}" name="CR" dataDxfId="199"/>
+    <tableColumn id="6" xr3:uid="{91C2FE73-1BD2-43BC-B96D-B539C15D7C00}" name="Turma" dataDxfId="198"/>
+    <tableColumn id="7" xr3:uid="{D09BD2EF-C520-450A-BED1-0F582544DBA9}" name="Docente" dataDxfId="197"/>
+    <tableColumn id="8" xr3:uid="{683818FA-F2AF-4481-8193-F7EDC84AF449}" name="Composição turma/Alunos a serem atendidos" dataDxfId="196"/>
+    <tableColumn id="9" xr3:uid="{0024C9DE-7CF2-472F-9086-9DBA4FEF5A67}" name="Horário" dataDxfId="195"/>
+    <tableColumn id="10" xr3:uid="{33454875-F963-46A1-93DB-2EBD75DBF53F}" name="Programa" dataDxfId="194"/>
+    <tableColumn id="11" xr3:uid="{F6E1869E-A951-43DB-8B33-EB1A72891E7A}" name="Sala" dataDxfId="193"/>
+    <tableColumn id="12" xr3:uid="{BE2FEE78-3977-454D-9416-546C1CCEBCE2}" name="Início das aulas" dataDxfId="192"/>
+    <tableColumn id="13" xr3:uid="{22DDA251-DD2E-4E83-BFA6-60FAE7564DAB}" name="Isolada" dataDxfId="191"/>
+    <tableColumn id="14" xr3:uid="{9484E63F-9726-40CF-B1D0-955DEEBB6579}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="190"/>
+    <tableColumn id="15" xr3:uid="{1949F7BC-4800-45E4-9C55-736992C0325D}" name="Plano de ensino" dataDxfId="189" dataCellStyle="Hiperlink"/>
+    <tableColumn id="16" xr3:uid="{C382CA55-4D45-475B-A278-7E6F5923D726}" name="Idioma" dataDxfId="188"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CAD955B6-1432-470A-9FD5-C98295DE87A7}" name="Tabela14" displayName="Tabela14" ref="A1:P28" totalsRowShown="0" headerRowDxfId="185" dataDxfId="183" headerRowBorderDxfId="184" tableBorderDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CAD955B6-1432-470A-9FD5-C98295DE87A7}" name="Tabela14" displayName="Tabela14" ref="A1:P28" totalsRowShown="0" headerRowDxfId="187" dataDxfId="185" headerRowBorderDxfId="186" tableBorderDxfId="184">
   <autoFilter ref="A1:P28" xr:uid="{CAD955B6-1432-470A-9FD5-C98295DE87A7}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{2AB6DFE3-B375-4165-A213-A29CA28A00BB}" name="#" dataDxfId="181"/>
-    <tableColumn id="2" xr3:uid="{F8C09489-5500-4305-B52E-53CECB1F7EB4}" name="Código" dataDxfId="180"/>
-    <tableColumn id="3" xr3:uid="{4A88644F-4BAF-4AAC-93D6-FF09EDA7AD63}" name="Disciplina" dataDxfId="179"/>
-    <tableColumn id="4" xr3:uid="{CA706991-3CE7-48F4-861C-9884521E2869}" name="CH" dataDxfId="178"/>
-    <tableColumn id="5" xr3:uid="{A4ECA890-2128-482F-8BD8-F280E04D7CC9}" name="CR" dataDxfId="177"/>
-    <tableColumn id="6" xr3:uid="{EDB33D85-C4A1-4DC8-872E-09FC18882413}" name="Turma" dataDxfId="176"/>
-    <tableColumn id="7" xr3:uid="{ABBFB838-B6D2-4600-A38B-EAEDC39E962E}" name="Docente" dataDxfId="175"/>
-    <tableColumn id="8" xr3:uid="{EABC514F-2202-4703-9680-DCA673E53EEB}" name="Composição turma/Alunos a serem atendidos" dataDxfId="174"/>
-    <tableColumn id="9" xr3:uid="{C9DA34B8-4794-46B0-BD3F-9A64F76C23A0}" name="Horário" dataDxfId="173"/>
-    <tableColumn id="10" xr3:uid="{CB223F6F-AE5E-402B-A37E-7783D7FA18D4}" name="Programa" dataDxfId="172"/>
-    <tableColumn id="11" xr3:uid="{8485507B-F0CE-4545-8056-97C1F034A9E2}" name="Sala" dataDxfId="171"/>
-    <tableColumn id="12" xr3:uid="{603BE3A4-2517-4DFD-A197-40DDEDA4D8F6}" name="Início das aulas" dataDxfId="170"/>
-    <tableColumn id="13" xr3:uid="{3D0332BD-210A-469F-968B-C4AD67E53E46}" name="Isolada" dataDxfId="169"/>
-    <tableColumn id="14" xr3:uid="{178E3F11-DE21-47A8-9653-ACAE94902886}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="168"/>
-    <tableColumn id="15" xr3:uid="{E100C4F9-9B7A-4DBE-AEB3-F37A9E70A909}" name="Plano de ensino" dataDxfId="167"/>
-    <tableColumn id="16" xr3:uid="{3B36DCA2-39B2-4A01-8BA3-55F6012CABA6}" name="Idioma" dataDxfId="166"/>
+    <tableColumn id="1" xr3:uid="{2AB6DFE3-B375-4165-A213-A29CA28A00BB}" name="#" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{F8C09489-5500-4305-B52E-53CECB1F7EB4}" name="Código" dataDxfId="182"/>
+    <tableColumn id="3" xr3:uid="{4A88644F-4BAF-4AAC-93D6-FF09EDA7AD63}" name="Disciplina" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{CA706991-3CE7-48F4-861C-9884521E2869}" name="CH" dataDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{A4ECA890-2128-482F-8BD8-F280E04D7CC9}" name="CR" dataDxfId="179"/>
+    <tableColumn id="6" xr3:uid="{EDB33D85-C4A1-4DC8-872E-09FC18882413}" name="Turma" dataDxfId="178"/>
+    <tableColumn id="7" xr3:uid="{ABBFB838-B6D2-4600-A38B-EAEDC39E962E}" name="Docente" dataDxfId="177"/>
+    <tableColumn id="8" xr3:uid="{EABC514F-2202-4703-9680-DCA673E53EEB}" name="Composição turma/Alunos a serem atendidos" dataDxfId="176"/>
+    <tableColumn id="9" xr3:uid="{C9DA34B8-4794-46B0-BD3F-9A64F76C23A0}" name="Horário" dataDxfId="175"/>
+    <tableColumn id="10" xr3:uid="{CB223F6F-AE5E-402B-A37E-7783D7FA18D4}" name="Programa" dataDxfId="174"/>
+    <tableColumn id="11" xr3:uid="{8485507B-F0CE-4545-8056-97C1F034A9E2}" name="Sala" dataDxfId="173"/>
+    <tableColumn id="12" xr3:uid="{603BE3A4-2517-4DFD-A197-40DDEDA4D8F6}" name="Início das aulas" dataDxfId="172"/>
+    <tableColumn id="13" xr3:uid="{3D0332BD-210A-469F-968B-C4AD67E53E46}" name="Isolada" dataDxfId="171"/>
+    <tableColumn id="14" xr3:uid="{178E3F11-DE21-47A8-9653-ACAE94902886}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="170"/>
+    <tableColumn id="15" xr3:uid="{E100C4F9-9B7A-4DBE-AEB3-F37A9E70A909}" name="Plano de ensino" dataDxfId="169"/>
+    <tableColumn id="16" xr3:uid="{3B36DCA2-39B2-4A01-8BA3-55F6012CABA6}" name="Idioma" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{7B3C19CD-A797-43DC-980D-7CD2FB4EDB1C}" name="Tabela13" displayName="Tabela13" ref="A1:P28" totalsRowShown="0" headerRowDxfId="165" dataDxfId="163" headerRowBorderDxfId="164" tableBorderDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{7B3C19CD-A797-43DC-980D-7CD2FB4EDB1C}" name="Tabela13" displayName="Tabela13" ref="A1:P28" totalsRowShown="0" headerRowDxfId="167" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164">
   <autoFilter ref="A1:P28" xr:uid="{7B3C19CD-A797-43DC-980D-7CD2FB4EDB1C}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{FF9A95BC-72F3-44EB-9075-94A2A5764C60}" name="#" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{FB573A85-371C-4685-9DCC-E268AB4C11D0}" name="Código" dataDxfId="160"/>
-    <tableColumn id="3" xr3:uid="{76F91086-1C1A-4201-B4AF-32F27D02C574}" name="Disciplina" dataDxfId="159"/>
-    <tableColumn id="4" xr3:uid="{ACC35C00-44FD-41FD-A89A-BEFEC542CF80}" name="CH" dataDxfId="158"/>
-    <tableColumn id="5" xr3:uid="{3938167A-8B9E-4718-813E-C06EB457EEC1}" name="CR" dataDxfId="157"/>
-    <tableColumn id="6" xr3:uid="{DD5C65DA-AD61-4EA0-959B-2A8C538E419E}" name="Turma" dataDxfId="156"/>
-    <tableColumn id="7" xr3:uid="{E3ADB51F-9B6B-4439-9ED0-C9A3E5D198F6}" name="Docente" dataDxfId="155"/>
-    <tableColumn id="8" xr3:uid="{3B752700-B834-4249-BF4E-1B8C55DE34C1}" name="Composição turma/Alunos a serem atendidos" dataDxfId="154"/>
-    <tableColumn id="9" xr3:uid="{A09026EE-AD2D-4E36-846E-B072F2E43547}" name="Horário" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{3F985AD0-3D99-4703-8CAB-88580ACB0CE1}" name="Programa" dataDxfId="152"/>
-    <tableColumn id="11" xr3:uid="{D5AD7972-10EA-4710-A392-8F3ABF3C5F54}" name="Sala" dataDxfId="151"/>
-    <tableColumn id="12" xr3:uid="{3FEAABF1-8A1D-4FBE-813D-C57658C09B52}" name="Início das aulas" dataDxfId="150"/>
-    <tableColumn id="13" xr3:uid="{A9AEFE98-51E8-4905-8AD6-861EC424E010}" name="Isolada" dataDxfId="149"/>
-    <tableColumn id="14" xr3:uid="{2143138C-00C7-4C20-B431-B8983CA553F4}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="148"/>
-    <tableColumn id="15" xr3:uid="{A009B311-32DF-41D2-84B3-11BAB492F79A}" name="Plano de ensino" dataDxfId="147"/>
-    <tableColumn id="16" xr3:uid="{E63FFF6D-6709-403E-87F4-A90644D3256D}" name="Idioma" dataDxfId="146"/>
+    <tableColumn id="1" xr3:uid="{FF9A95BC-72F3-44EB-9075-94A2A5764C60}" name="#" dataDxfId="163"/>
+    <tableColumn id="2" xr3:uid="{FB573A85-371C-4685-9DCC-E268AB4C11D0}" name="Código" dataDxfId="162"/>
+    <tableColumn id="3" xr3:uid="{76F91086-1C1A-4201-B4AF-32F27D02C574}" name="Disciplina" dataDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{ACC35C00-44FD-41FD-A89A-BEFEC542CF80}" name="CH" dataDxfId="160"/>
+    <tableColumn id="5" xr3:uid="{3938167A-8B9E-4718-813E-C06EB457EEC1}" name="CR" dataDxfId="159"/>
+    <tableColumn id="6" xr3:uid="{DD5C65DA-AD61-4EA0-959B-2A8C538E419E}" name="Turma" dataDxfId="158"/>
+    <tableColumn id="7" xr3:uid="{E3ADB51F-9B6B-4439-9ED0-C9A3E5D198F6}" name="Docente" dataDxfId="157"/>
+    <tableColumn id="8" xr3:uid="{3B752700-B834-4249-BF4E-1B8C55DE34C1}" name="Composição turma/Alunos a serem atendidos" dataDxfId="156"/>
+    <tableColumn id="9" xr3:uid="{A09026EE-AD2D-4E36-846E-B072F2E43547}" name="Horário" dataDxfId="155"/>
+    <tableColumn id="10" xr3:uid="{3F985AD0-3D99-4703-8CAB-88580ACB0CE1}" name="Programa" dataDxfId="154"/>
+    <tableColumn id="11" xr3:uid="{D5AD7972-10EA-4710-A392-8F3ABF3C5F54}" name="Sala" dataDxfId="153"/>
+    <tableColumn id="12" xr3:uid="{3FEAABF1-8A1D-4FBE-813D-C57658C09B52}" name="Início das aulas" dataDxfId="152"/>
+    <tableColumn id="13" xr3:uid="{A9AEFE98-51E8-4905-8AD6-861EC424E010}" name="Isolada" dataDxfId="151"/>
+    <tableColumn id="14" xr3:uid="{2143138C-00C7-4C20-B431-B8983CA553F4}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="150"/>
+    <tableColumn id="15" xr3:uid="{A009B311-32DF-41D2-84B3-11BAB492F79A}" name="Plano de ensino" dataDxfId="149"/>
+    <tableColumn id="16" xr3:uid="{E63FFF6D-6709-403E-87F4-A90644D3256D}" name="Idioma" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0DFF5A38-C932-44F8-B942-C37AC72C358B}" name="Disc2020.2" displayName="Disc2020.2" ref="A1:P28" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0DFF5A38-C932-44F8-B942-C37AC72C358B}" name="Disc2020.2" displayName="Disc2020.2" ref="A1:P28" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <autoFilter ref="A1:P28" xr:uid="{0DFF5A38-C932-44F8-B942-C37AC72C358B}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{C8C59A5D-0770-45FF-A369-DE00C3517AAF}" name="#" dataDxfId="143"/>
-    <tableColumn id="2" xr3:uid="{93C8C3C5-D789-4F66-BE5A-35CAC8866BC5}" name="Código" dataDxfId="142"/>
-    <tableColumn id="3" xr3:uid="{C588CDA3-67A4-49F0-8564-5BC6B8C7A120}" name="Disciplina" dataDxfId="141"/>
-    <tableColumn id="4" xr3:uid="{5C8179D6-05E3-477B-9961-3CD5D5BF0E84}" name="CH" dataDxfId="140"/>
-    <tableColumn id="5" xr3:uid="{9860C469-1CB0-48CD-B930-812B020FB383}" name="CR" dataDxfId="139"/>
-    <tableColumn id="6" xr3:uid="{DF20F790-26FE-44D3-81E7-1AF63030D993}" name="Turma" dataDxfId="138"/>
-    <tableColumn id="7" xr3:uid="{A1A044E7-EE99-43B3-B14A-901F1B844784}" name="Docente" dataDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{5E117F2A-949A-4DF5-A1AD-DA439B8D25A2}" name="Composição turma/Alunos a serem atendidos" dataDxfId="136"/>
-    <tableColumn id="9" xr3:uid="{E3A5998D-6CA5-4B2C-A705-B088BD7CAB4C}" name="Horário" dataDxfId="135"/>
-    <tableColumn id="14" xr3:uid="{0CEEC0C5-6F94-4567-AC8F-EAF360610602}" name="Programa" dataDxfId="134"/>
-    <tableColumn id="10" xr3:uid="{DD47624C-1E13-4C7F-8F4E-D11D35AB9546}" name="Sala" dataDxfId="133"/>
-    <tableColumn id="11" xr3:uid="{AD2B2689-8EDA-463B-AE6E-168A7015B5A2}" name="Início das aulas" dataDxfId="132"/>
-    <tableColumn id="12" xr3:uid="{F82F7935-D1D4-49E6-8F4F-528FC5D13458}" name="Isolada" dataDxfId="131"/>
-    <tableColumn id="13" xr3:uid="{4189E4D3-929B-4DEE-AA06-136202600042}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="130"/>
-    <tableColumn id="15" xr3:uid="{E29C5835-3CC4-4B62-8CEB-3888EC8DEA0F}" name="Plano de ensino" dataDxfId="129"/>
-    <tableColumn id="16" xr3:uid="{5F8861DF-9063-44DD-8B4E-1F15A6D3F870}" name="Idioma" dataDxfId="128"/>
+    <tableColumn id="1" xr3:uid="{C8C59A5D-0770-45FF-A369-DE00C3517AAF}" name="#" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{93C8C3C5-D789-4F66-BE5A-35CAC8866BC5}" name="Código" dataDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{C588CDA3-67A4-49F0-8564-5BC6B8C7A120}" name="Disciplina" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{5C8179D6-05E3-477B-9961-3CD5D5BF0E84}" name="CH" dataDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{9860C469-1CB0-48CD-B930-812B020FB383}" name="CR" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{DF20F790-26FE-44D3-81E7-1AF63030D993}" name="Turma" dataDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{A1A044E7-EE99-43B3-B14A-901F1B844784}" name="Docente" dataDxfId="139"/>
+    <tableColumn id="8" xr3:uid="{5E117F2A-949A-4DF5-A1AD-DA439B8D25A2}" name="Composição turma/Alunos a serem atendidos" dataDxfId="138"/>
+    <tableColumn id="9" xr3:uid="{E3A5998D-6CA5-4B2C-A705-B088BD7CAB4C}" name="Horário" dataDxfId="137"/>
+    <tableColumn id="14" xr3:uid="{0CEEC0C5-6F94-4567-AC8F-EAF360610602}" name="Programa" dataDxfId="136"/>
+    <tableColumn id="10" xr3:uid="{DD47624C-1E13-4C7F-8F4E-D11D35AB9546}" name="Sala" dataDxfId="135"/>
+    <tableColumn id="11" xr3:uid="{AD2B2689-8EDA-463B-AE6E-168A7015B5A2}" name="Início das aulas" dataDxfId="134"/>
+    <tableColumn id="12" xr3:uid="{F82F7935-D1D4-49E6-8F4F-528FC5D13458}" name="Isolada" dataDxfId="133"/>
+    <tableColumn id="13" xr3:uid="{4189E4D3-929B-4DEE-AA06-136202600042}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="132"/>
+    <tableColumn id="15" xr3:uid="{E29C5835-3CC4-4B62-8CEB-3888EC8DEA0F}" name="Plano de ensino" dataDxfId="131"/>
+    <tableColumn id="16" xr3:uid="{5F8861DF-9063-44DD-8B4E-1F15A6D3F870}" name="Idioma" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DAB39004-38C0-4DD5-8732-433992934A23}" name="Tabela9" displayName="Tabela9" ref="A1:P29" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" tableBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DAB39004-38C0-4DD5-8732-433992934A23}" name="Tabela9" displayName="Tabela9" ref="A1:P29" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128" tableBorderDxfId="127">
   <autoFilter ref="A1:P29" xr:uid="{DAB39004-38C0-4DD5-8732-433992934A23}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{6DC4BFBC-3F11-4D4D-904A-7A300F57497D}" name="#" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{B2759923-7561-4900-9BAD-8BDB42D2A798}" name="Código" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{F5B166A1-849F-4F80-918F-A98F9BECE4D0}" name="Disciplina" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{92274C18-F003-4E68-8869-BD1429077472}" name="CH" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{B81996C0-E6C6-4995-B588-2D4BB4498EEB}" name="CR" dataDxfId="120"/>
-    <tableColumn id="6" xr3:uid="{7F5B0734-BD1F-435B-9DEF-087D337A3966}" name="Turma" dataDxfId="119"/>
-    <tableColumn id="7" xr3:uid="{3EFDDB5A-98C4-49D6-B547-11F096748141}" name="Docente" dataDxfId="118"/>
-    <tableColumn id="8" xr3:uid="{0D09F161-9965-4C80-8F40-07EB95742F03}" name="Composição turma/Alunos a serem atendidos" dataDxfId="117"/>
-    <tableColumn id="9" xr3:uid="{3E771464-0D5C-434B-8450-FC9B604094A3}" name="Horário" dataDxfId="116"/>
-    <tableColumn id="10" xr3:uid="{4AF5F3C0-B769-4DBE-B56F-437466D61E26}" name="Programa" dataDxfId="115"/>
-    <tableColumn id="11" xr3:uid="{351B37A4-9B50-484E-A30D-F7F384D10EE7}" name="Sala" dataDxfId="114"/>
-    <tableColumn id="12" xr3:uid="{0A0417ED-736A-4818-BC7D-8D872BC28DE3}" name="Início das aulas" dataDxfId="113"/>
-    <tableColumn id="13" xr3:uid="{A3530FF3-52EA-4DC9-9030-8F587019A376}" name="Isolada" dataDxfId="112"/>
-    <tableColumn id="14" xr3:uid="{68DF47F3-FEBA-47B0-BE87-5FD531D07F5D}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="111"/>
-    <tableColumn id="15" xr3:uid="{4F41BEEE-2A8D-4417-B64F-DA43ED8FBC22}" name="Plano de ensino" dataDxfId="110"/>
-    <tableColumn id="16" xr3:uid="{AB396228-C68E-42FC-B8EB-3A39F1264537}" name="Idioma" dataDxfId="109"/>
+    <tableColumn id="1" xr3:uid="{6DC4BFBC-3F11-4D4D-904A-7A300F57497D}" name="#" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{B2759923-7561-4900-9BAD-8BDB42D2A798}" name="Código" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{F5B166A1-849F-4F80-918F-A98F9BECE4D0}" name="Disciplina" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{92274C18-F003-4E68-8869-BD1429077472}" name="CH" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{B81996C0-E6C6-4995-B588-2D4BB4498EEB}" name="CR" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{7F5B0734-BD1F-435B-9DEF-087D337A3966}" name="Turma" dataDxfId="121"/>
+    <tableColumn id="7" xr3:uid="{3EFDDB5A-98C4-49D6-B547-11F096748141}" name="Docente" dataDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{0D09F161-9965-4C80-8F40-07EB95742F03}" name="Composição turma/Alunos a serem atendidos" dataDxfId="119"/>
+    <tableColumn id="9" xr3:uid="{3E771464-0D5C-434B-8450-FC9B604094A3}" name="Horário" dataDxfId="118"/>
+    <tableColumn id="10" xr3:uid="{4AF5F3C0-B769-4DBE-B56F-437466D61E26}" name="Programa" dataDxfId="117"/>
+    <tableColumn id="11" xr3:uid="{351B37A4-9B50-484E-A30D-F7F384D10EE7}" name="Sala" dataDxfId="116"/>
+    <tableColumn id="12" xr3:uid="{0A0417ED-736A-4818-BC7D-8D872BC28DE3}" name="Início das aulas" dataDxfId="115"/>
+    <tableColumn id="13" xr3:uid="{A3530FF3-52EA-4DC9-9030-8F587019A376}" name="Isolada" dataDxfId="114"/>
+    <tableColumn id="14" xr3:uid="{68DF47F3-FEBA-47B0-BE87-5FD531D07F5D}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="113"/>
+    <tableColumn id="15" xr3:uid="{4F41BEEE-2A8D-4417-B64F-DA43ED8FBC22}" name="Plano de ensino" dataDxfId="112"/>
+    <tableColumn id="16" xr3:uid="{AB396228-C68E-42FC-B8EB-3A39F1264537}" name="Idioma" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{19E05A08-A8B4-4556-B632-98918B8B354E}" name="Tabela10" displayName="Tabela10" ref="A1:P30" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{19E05A08-A8B4-4556-B632-98918B8B354E}" name="Tabela10" displayName="Tabela10" ref="A1:P30" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="A1:P30" xr:uid="{19E05A08-A8B4-4556-B632-98918B8B354E}"/>
   <tableColumns count="16">
-    <tableColumn id="11" xr3:uid="{A1E30FC8-6473-4267-80EC-DC713C24E8C3}" name="#" dataDxfId="106"/>
-    <tableColumn id="1" xr3:uid="{681443BB-5BAF-4490-A8D6-35074C6EBCFC}" name="Código" dataDxfId="105"/>
-    <tableColumn id="12" xr3:uid="{F65252EF-0816-4F3A-B214-3782E89F2A37}" name="Disciplina" dataDxfId="104"/>
-    <tableColumn id="9" xr3:uid="{C09536B4-F83B-40DB-B312-E0C48B49E71C}" name="CH" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{D4A140C3-EED7-47B8-8F1D-D76E43CE3B20}" name="CR" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{E47C8101-2DD5-469C-8795-CCD477065C76}" name="Turma" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{BC6E0979-5DAF-43A6-B0A3-05F05DE51A0A}" name="Docente" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{803FA19A-660D-4BB2-B9B1-057905B45F5A}" name="Composição turma/Alunos a serem atendidos" dataDxfId="99"/>
-    <tableColumn id="6" xr3:uid="{E25DE4BB-9A10-452D-87FC-6CA75E98C3D4}" name="Horário" dataDxfId="98"/>
-    <tableColumn id="14" xr3:uid="{C55F9469-5367-4DC9-91DE-E33CD9056E0C}" name="Programa" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{620C0F25-FDE7-47CE-85EC-24F7FF2EEC22}" name="Sala" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{58954685-218D-4AEC-AF27-15817D49739B}" name="Início das aulas" dataDxfId="95"/>
-    <tableColumn id="10" xr3:uid="{AE6EF7BC-9F3D-4446-968B-80D0EAE47C9F}" name="Isolada" dataDxfId="94"/>
-    <tableColumn id="13" xr3:uid="{E0DAE52A-00CC-4AB2-BFD9-D5A2BF629612}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="93"/>
-    <tableColumn id="15" xr3:uid="{50906FEC-9A8B-44B5-8942-74C150D752C8}" name="Plano de ensino" dataDxfId="92"/>
-    <tableColumn id="16" xr3:uid="{069AB126-8ACB-4C8C-AAC5-9C8E8E4F6853}" name="Idioma" dataDxfId="91"/>
+    <tableColumn id="11" xr3:uid="{A1E30FC8-6473-4267-80EC-DC713C24E8C3}" name="#" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{681443BB-5BAF-4490-A8D6-35074C6EBCFC}" name="Código" dataDxfId="107"/>
+    <tableColumn id="12" xr3:uid="{F65252EF-0816-4F3A-B214-3782E89F2A37}" name="Disciplina" dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{C09536B4-F83B-40DB-B312-E0C48B49E71C}" name="CH" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{D4A140C3-EED7-47B8-8F1D-D76E43CE3B20}" name="CR" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{E47C8101-2DD5-469C-8795-CCD477065C76}" name="Turma" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{BC6E0979-5DAF-43A6-B0A3-05F05DE51A0A}" name="Docente" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{803FA19A-660D-4BB2-B9B1-057905B45F5A}" name="Composição turma/Alunos a serem atendidos" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{E25DE4BB-9A10-452D-87FC-6CA75E98C3D4}" name="Horário" dataDxfId="100"/>
+    <tableColumn id="14" xr3:uid="{C55F9469-5367-4DC9-91DE-E33CD9056E0C}" name="Programa" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{620C0F25-FDE7-47CE-85EC-24F7FF2EEC22}" name="Sala" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{58954685-218D-4AEC-AF27-15817D49739B}" name="Início das aulas" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{AE6EF7BC-9F3D-4446-968B-80D0EAE47C9F}" name="Isolada" dataDxfId="96"/>
+    <tableColumn id="13" xr3:uid="{E0DAE52A-00CC-4AB2-BFD9-D5A2BF629612}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="95"/>
+    <tableColumn id="15" xr3:uid="{50906FEC-9A8B-44B5-8942-74C150D752C8}" name="Plano de ensino" dataDxfId="94"/>
+    <tableColumn id="16" xr3:uid="{069AB126-8ACB-4C8C-AAC5-9C8E8E4F6853}" name="Idioma" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DA35F3B0-3664-48C4-88DC-DF190E834E6A}" name="Tabela11" displayName="Tabela11" ref="A1:P39" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DA35F3B0-3664-48C4-88DC-DF190E834E6A}" name="Tabela11" displayName="Tabela11" ref="A1:P39" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A1:P39" xr:uid="{DA35F3B0-3664-48C4-88DC-DF190E834E6A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
     <sortCondition ref="A1:A39"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{9ECD9829-BE16-4218-B3E2-07F5766F1A58}" name="#" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{F7D3F331-D666-41B2-B2D3-590C0402C88D}" name="Código" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{1ECA9DCC-94E6-46E9-8ADA-68419C9240B8}" name="Disciplina" dataDxfId="86"/>
-    <tableColumn id="12" xr3:uid="{8A652D42-34B7-4E2B-924A-073C96CE20C1}" name="CH" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{7DBD3AE8-797F-4835-8C42-CFD1B6FC50C3}" name="CR" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{9939EA87-CCD4-410E-BAEC-4207F80EA25D}" name="Turma" dataDxfId="83"/>
-    <tableColumn id="14" xr3:uid="{CA34C65D-196C-4A59-A88A-9E05BE156597}" name="Docente" dataDxfId="82"/>
-    <tableColumn id="13" xr3:uid="{63B47A39-E210-4CF7-A0E4-EC66D69B4F61}" name="Composição turma/Alunos a serem atendidos" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{5FD3D683-4D4B-4C12-A044-074CD96BCAC0}" name="Horário" dataDxfId="80"/>
-    <tableColumn id="16" xr3:uid="{27F9AB05-0D1F-4132-9799-888C71ECF536}" name="Programa" dataDxfId="79"/>
-    <tableColumn id="10" xr3:uid="{AA87FF47-3CAD-47E4-823A-49C59A352D3F}" name="Sala" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{54E47078-6CC5-4899-B7F3-40CCF11EEDE5}" name="Início das aulas" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{4546EB9A-0A6E-4AFC-A779-9FCED8FE3C0C}" name="Isolada" dataDxfId="76"/>
-    <tableColumn id="15" xr3:uid="{FE9AFD15-7599-4FB3-83B4-F2D0C7B4CD55}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="75"/>
-    <tableColumn id="17" xr3:uid="{38A18CD0-0965-4949-A737-70C84155876E}" name="Plano de ensino" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{A43C2A69-B476-47CE-879C-031D92770073}" name="Idioma" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{9ECD9829-BE16-4218-B3E2-07F5766F1A58}" name="#" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{F7D3F331-D666-41B2-B2D3-590C0402C88D}" name="Código" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{1ECA9DCC-94E6-46E9-8ADA-68419C9240B8}" name="Disciplina" dataDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{8A652D42-34B7-4E2B-924A-073C96CE20C1}" name="CH" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{7DBD3AE8-797F-4835-8C42-CFD1B6FC50C3}" name="CR" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{9939EA87-CCD4-410E-BAEC-4207F80EA25D}" name="Turma" dataDxfId="85"/>
+    <tableColumn id="14" xr3:uid="{CA34C65D-196C-4A59-A88A-9E05BE156597}" name="Docente" dataDxfId="84"/>
+    <tableColumn id="13" xr3:uid="{63B47A39-E210-4CF7-A0E4-EC66D69B4F61}" name="Composição turma/Alunos a serem atendidos" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{5FD3D683-4D4B-4C12-A044-074CD96BCAC0}" name="Horário" dataDxfId="82"/>
+    <tableColumn id="16" xr3:uid="{27F9AB05-0D1F-4132-9799-888C71ECF536}" name="Programa" dataDxfId="81"/>
+    <tableColumn id="10" xr3:uid="{AA87FF47-3CAD-47E4-823A-49C59A352D3F}" name="Sala" dataDxfId="80"/>
+    <tableColumn id="11" xr3:uid="{54E47078-6CC5-4899-B7F3-40CCF11EEDE5}" name="Início das aulas" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{4546EB9A-0A6E-4AFC-A779-9FCED8FE3C0C}" name="Isolada" dataDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{FE9AFD15-7599-4FB3-83B4-F2D0C7B4CD55}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="77"/>
+    <tableColumn id="17" xr3:uid="{38A18CD0-0965-4949-A737-70C84155876E}" name="Plano de ensino" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{A43C2A69-B476-47CE-879C-031D92770073}" name="Idioma" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{A810F8D3-4DFA-4854-9639-B6ED98FA0A00}" name="Tabela28" displayName="Tabela28" ref="A1:U539" totalsRowShown="0" headerRowDxfId="353" tableBorderDxfId="352">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{A810F8D3-4DFA-4854-9639-B6ED98FA0A00}" name="Tabela28" displayName="Tabela28" ref="A1:U539" totalsRowShown="0" headerRowDxfId="355" tableBorderDxfId="354">
   <autoFilter ref="A1:U539" xr:uid="{A810F8D3-4DFA-4854-9639-B6ED98FA0A00}">
     <filterColumn colId="5">
       <filters>
@@ -11659,19 +11703,19 @@
     <tableColumn id="4" xr3:uid="{C05E1323-D77B-45F1-96CE-214FB63A9FBF}" name="Início das aulas"/>
     <tableColumn id="5" xr3:uid="{C123109C-42E5-4F4F-96C6-A415852158B9}" name="Código"/>
     <tableColumn id="6" xr3:uid="{7CD919E5-34A7-4170-98C7-CB181DBDF553}" name="Disciplina"/>
-    <tableColumn id="7" xr3:uid="{7AFE8E3A-5487-4F5A-A7A0-656246F05675}" name="CH" dataDxfId="351"/>
-    <tableColumn id="8" xr3:uid="{13639C88-BBF2-4B1C-9C7B-98B98160C299}" name="CR" dataDxfId="350"/>
+    <tableColumn id="7" xr3:uid="{7AFE8E3A-5487-4F5A-A7A0-656246F05675}" name="CH" dataDxfId="353"/>
+    <tableColumn id="8" xr3:uid="{13639C88-BBF2-4B1C-9C7B-98B98160C299}" name="CR" dataDxfId="352"/>
     <tableColumn id="9" xr3:uid="{60D04186-CEAD-4C8D-9BB6-510833D0E2FF}" name="Turma"/>
-    <tableColumn id="10" xr3:uid="{69188C28-DE77-40A3-AB48-0481D516794C}" name="Docente" dataDxfId="349"/>
+    <tableColumn id="10" xr3:uid="{69188C28-DE77-40A3-AB48-0481D516794C}" name="Docente" dataDxfId="351"/>
     <tableColumn id="11" xr3:uid="{2E783CFD-88A6-4B2B-BD66-BB66B7DD02D0}" name="Composição turma/Alunos a serem atendidos"/>
-    <tableColumn id="12" xr3:uid="{727BCBD5-F0E3-460F-B3F2-320F80019311}" name="Dia" dataDxfId="348"/>
+    <tableColumn id="12" xr3:uid="{727BCBD5-F0E3-460F-B3F2-320F80019311}" name="Dia" dataDxfId="350"/>
     <tableColumn id="21" xr3:uid="{8C25A4B7-6FE0-4A9E-BFCE-13B5D4CDB40D}" name="Horário"/>
     <tableColumn id="13" xr3:uid="{79FD3150-1D8F-48E6-AE8C-4E82A520E16E}" name="Programa"/>
     <tableColumn id="14" xr3:uid="{5DAB7ADC-5E78-4F01-8245-B5D7964B1E38}" name="Prédio"/>
-    <tableColumn id="15" xr3:uid="{7BC635F2-28B6-4F97-9D33-A77089027269}" name="Sala" dataDxfId="347"/>
-    <tableColumn id="16" xr3:uid="{758BD5C0-653A-46ED-A075-0E8C38C2DDAF}" name="Isolada" dataDxfId="346"/>
-    <tableColumn id="17" xr3:uid="{9D35FF6D-E024-402E-BACE-AE30071B3DB4}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="345"/>
-    <tableColumn id="18" xr3:uid="{D3DD4408-1D8F-4B54-A779-CFD9A16DB9C3}" name="Plano de ensino" dataDxfId="344"/>
+    <tableColumn id="15" xr3:uid="{7BC635F2-28B6-4F97-9D33-A77089027269}" name="Sala" dataDxfId="349"/>
+    <tableColumn id="16" xr3:uid="{758BD5C0-653A-46ED-A075-0E8C38C2DDAF}" name="Isolada" dataDxfId="348"/>
+    <tableColumn id="17" xr3:uid="{9D35FF6D-E024-402E-BACE-AE30071B3DB4}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="347"/>
+    <tableColumn id="18" xr3:uid="{D3DD4408-1D8F-4B54-A779-CFD9A16DB9C3}" name="Plano de ensino" dataDxfId="346"/>
     <tableColumn id="19" xr3:uid="{2510FF4C-9781-4B94-83D8-DBD21F584988}" name="Idioma"/>
     <tableColumn id="20" xr3:uid="{F3D49D4F-7421-4FEB-A42D-3DC76EF78047}" name="Observação"/>
   </tableColumns>
@@ -11680,75 +11724,75 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{07C8FAD4-9D36-4E8E-A43E-9936672AC281}" name="Tabela12" displayName="Tabela12" ref="A1:P30" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{07C8FAD4-9D36-4E8E-A43E-9936672AC281}" name="Tabela12" displayName="Tabela12" ref="A1:P30" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A1:P30" xr:uid="{07C8FAD4-9D36-4E8E-A43E-9936672AC281}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{EDA54A2B-74FA-4C7E-8DF5-1E5E01A8AD5E}" name="#" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{291EE8F9-B2F6-4BD7-9E19-A5606243723D}" name="Código" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{395F1383-8800-4C0C-91E3-7576958D3F74}" name="Disciplina" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{C64CAE72-55FF-4176-8A28-45D684789929}" name="CH" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{EC4E7685-5153-4EFE-96DF-DD4CCEFE41E0}" name="CR" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{D408E83B-8F8D-4658-80FA-F575F6E7F2BB}" name="Turma" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{89AE3EDA-D51E-4399-97FD-EBC100128480}" name="Docente" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{970E4A68-EA98-4441-B4A3-09F7F64BB866}" name="Composição turma/Alunos a serem atendidos" dataDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{D2C877A2-4B61-4441-AB0C-0CFB786B9C46}" name="Horário" dataDxfId="62"/>
-    <tableColumn id="14" xr3:uid="{22C3D16C-82E5-48C6-8087-288C2AAF1BFC}" name="Programa" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{E5227582-D61A-4529-899E-31BD890F6313}" name="Sala" dataDxfId="60"/>
-    <tableColumn id="11" xr3:uid="{709B494B-44D6-48DF-B771-3DA003A3158E}" name="Início das aulas" dataDxfId="59"/>
-    <tableColumn id="12" xr3:uid="{DD515F0B-9093-4738-A03E-F0A6AD376847}" name="Isolada" dataDxfId="58"/>
-    <tableColumn id="13" xr3:uid="{8B9AC040-B64E-45B7-AC31-50DB0F8FBF44}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="57"/>
-    <tableColumn id="15" xr3:uid="{B4767A37-6B80-4C7A-9168-FFD31E4F1A0A}" name="Plano de ensino" dataDxfId="56"/>
-    <tableColumn id="16" xr3:uid="{635991E3-6DD0-45B0-A1E6-0DEE8052FBB1}" name="Idioma" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{EDA54A2B-74FA-4C7E-8DF5-1E5E01A8AD5E}" name="#" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{291EE8F9-B2F6-4BD7-9E19-A5606243723D}" name="Código" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{395F1383-8800-4C0C-91E3-7576958D3F74}" name="Disciplina" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{C64CAE72-55FF-4176-8A28-45D684789929}" name="CH" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{EC4E7685-5153-4EFE-96DF-DD4CCEFE41E0}" name="CR" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{D408E83B-8F8D-4658-80FA-F575F6E7F2BB}" name="Turma" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{89AE3EDA-D51E-4399-97FD-EBC100128480}" name="Docente" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{970E4A68-EA98-4441-B4A3-09F7F64BB866}" name="Composição turma/Alunos a serem atendidos" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{D2C877A2-4B61-4441-AB0C-0CFB786B9C46}" name="Horário" dataDxfId="64"/>
+    <tableColumn id="14" xr3:uid="{22C3D16C-82E5-48C6-8087-288C2AAF1BFC}" name="Programa" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{E5227582-D61A-4529-899E-31BD890F6313}" name="Sala" dataDxfId="62"/>
+    <tableColumn id="11" xr3:uid="{709B494B-44D6-48DF-B771-3DA003A3158E}" name="Início das aulas" dataDxfId="61"/>
+    <tableColumn id="12" xr3:uid="{DD515F0B-9093-4738-A03E-F0A6AD376847}" name="Isolada" dataDxfId="60"/>
+    <tableColumn id="13" xr3:uid="{8B9AC040-B64E-45B7-AC31-50DB0F8FBF44}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="59"/>
+    <tableColumn id="15" xr3:uid="{B4767A37-6B80-4C7A-9168-FFD31E4F1A0A}" name="Plano de ensino" dataDxfId="58"/>
+    <tableColumn id="16" xr3:uid="{635991E3-6DD0-45B0-A1E6-0DEE8052FBB1}" name="Idioma" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C3F0AEDA-3B22-4B3B-84F9-6557F9D0378F}" name="Tabela21" displayName="Tabela21" ref="A1:P30" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C3F0AEDA-3B22-4B3B-84F9-6557F9D0378F}" name="Tabela21" displayName="Tabela21" ref="A1:P30" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="A1:P30" xr:uid="{C3F0AEDA-3B22-4B3B-84F9-6557F9D0378F}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{2AB86612-CBC2-43FF-95A8-1F3738158353}" name="#" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{900741A6-3AE9-465A-95B8-F7DE5DCBEFF4}" name="Código" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{283BAD85-A22E-4FCE-8303-92839D733CD6}" name="Disciplina" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{FF908DD9-1FEA-491D-AA9D-3D883AE2FB96}" name="CH" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{98ED9C38-0D62-4245-886B-89C9B6381CDC}" name="CR" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{D13C6F1B-5EBF-43E7-8F90-D1FA4D3D155E}" name="Turma" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{2C45FA27-97B7-4585-93AC-84432C833D00}" name="Docente" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{E283D1D5-5BFA-4EA2-B95C-1D66F30132C9}" name="Composição turma/Alunos a serem atendidos" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{8C3269C1-ADF7-4BA2-9313-A1E80104462E}" name="Horário" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{DE9219AF-9618-4538-8D68-82DBBF62F295}" name="Programa" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{45B09979-EB2C-4336-AEF8-DC411910120A}" name="Sala" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{FE29A9FD-E6BE-4B3A-964B-161C8AF3F659}" name="Início das aulas" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{80D04A8C-D821-440B-AFAA-5FC19064E0CC}" name="Isolada" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{AB7C0C69-81A3-48E0-8EB6-4B6CD851DEAB}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{565CA2E2-3622-47D2-9C8E-C3659FEEDAF4}" name="Plano de ensino" dataDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{4793EA35-5505-410F-B614-E3A49726134E}" name="Idioma" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{2AB86612-CBC2-43FF-95A8-1F3738158353}" name="#" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{900741A6-3AE9-465A-95B8-F7DE5DCBEFF4}" name="Código" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{283BAD85-A22E-4FCE-8303-92839D733CD6}" name="Disciplina" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{FF908DD9-1FEA-491D-AA9D-3D883AE2FB96}" name="CH" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{98ED9C38-0D62-4245-886B-89C9B6381CDC}" name="CR" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{D13C6F1B-5EBF-43E7-8F90-D1FA4D3D155E}" name="Turma" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{2C45FA27-97B7-4585-93AC-84432C833D00}" name="Docente" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{E283D1D5-5BFA-4EA2-B95C-1D66F30132C9}" name="Composição turma/Alunos a serem atendidos" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{8C3269C1-ADF7-4BA2-9313-A1E80104462E}" name="Horário" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{DE9219AF-9618-4538-8D68-82DBBF62F295}" name="Programa" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{45B09979-EB2C-4336-AEF8-DC411910120A}" name="Sala" dataDxfId="43"/>
+    <tableColumn id="12" xr3:uid="{FE29A9FD-E6BE-4B3A-964B-161C8AF3F659}" name="Início das aulas" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{80D04A8C-D821-440B-AFAA-5FC19064E0CC}" name="Isolada" dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{AB7C0C69-81A3-48E0-8EB6-4B6CD851DEAB}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{565CA2E2-3622-47D2-9C8E-C3659FEEDAF4}" name="Plano de ensino" dataDxfId="39"/>
+    <tableColumn id="15" xr3:uid="{4793EA35-5505-410F-B614-E3A49726134E}" name="Idioma" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4531EEA2-FD56-4F53-A2B6-6A437B0472B3}" name="Tabela8" displayName="Tabela8" ref="A1:P36" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4531EEA2-FD56-4F53-A2B6-6A437B0472B3}" name="Tabela8" displayName="Tabela8" ref="A1:P36" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:P36" xr:uid="{4531EEA2-FD56-4F53-A2B6-6A437B0472B3}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{944D5F90-113F-45E6-90D2-D9F26C3D19E8}" name="#" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{03AFB47D-BBE2-4E06-A4EE-233AD91B9B04}" name="Código" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{6203F29D-1C47-4503-B1A7-6F2AEF27285A}" name="Disciplina" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{1BB72C74-647A-4652-B632-486AF4F36CA1}" name="CH" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{E445F3DE-4F0D-4A53-A241-B3D0B3DB6769}" name="CR" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{BF1FA85A-AF8B-481E-A8F6-F21C2F9C1030}" name="Turma" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{4FE21691-E922-4D3C-BFC9-81CA9A5114B8}" name="Docente" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{3D8D99E2-97B2-43BB-AF16-CC3E0CDA183A}" name="Composição turma/Alunos a serem atendidos" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{E81F4E30-A443-4557-9E41-49AD0181637B}" name="Horário" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{86654D09-2791-4994-9482-9B933C35B7DC}" name="Programa" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{2452B032-9299-410D-8FEB-C0EAD4A67350}" name="Sala" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{E093923D-501E-4E7D-814B-83AC953DF83C}" name="Início das aulas" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{83C2175F-ADF3-4098-9C8F-CD783D3E83D5}" name="Isolada" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{A6CBF804-C4C6-4BF8-BBF7-7D19343194CE}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{66EEE117-9278-4199-94E2-A050B749F07C}" name="Plano de ensino" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{34D10A58-740F-4955-B716-C4CFFA28B434}" name="Idioma" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{944D5F90-113F-45E6-90D2-D9F26C3D19E8}" name="#" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{03AFB47D-BBE2-4E06-A4EE-233AD91B9B04}" name="Código" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{6203F29D-1C47-4503-B1A7-6F2AEF27285A}" name="Disciplina" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{1BB72C74-647A-4652-B632-486AF4F36CA1}" name="CH" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{E445F3DE-4F0D-4A53-A241-B3D0B3DB6769}" name="CR" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{BF1FA85A-AF8B-481E-A8F6-F21C2F9C1030}" name="Turma" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{4FE21691-E922-4D3C-BFC9-81CA9A5114B8}" name="Docente" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{3D8D99E2-97B2-43BB-AF16-CC3E0CDA183A}" name="Composição turma/Alunos a serem atendidos" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{E81F4E30-A443-4557-9E41-49AD0181637B}" name="Horário" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{86654D09-2791-4994-9482-9B933C35B7DC}" name="Programa" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{2452B032-9299-410D-8FEB-C0EAD4A67350}" name="Sala" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{E093923D-501E-4E7D-814B-83AC953DF83C}" name="Início das aulas" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{83C2175F-ADF3-4098-9C8F-CD783D3E83D5}" name="Isolada" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{A6CBF804-C4C6-4BF8-BBF7-7D19343194CE}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{66EEE117-9278-4199-94E2-A050B749F07C}" name="Plano de ensino" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{34D10A58-740F-4955-B716-C4CFFA28B434}" name="Idioma" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11782,15 +11826,15 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ECA4E810-1B83-4F52-A1B4-963424B7D7B2}" name="Tabela2" displayName="Tabela2" ref="B2:G21" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ECA4E810-1B83-4F52-A1B4-963424B7D7B2}" name="Tabela2" displayName="Tabela2" ref="B2:G21" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="B2:G21" xr:uid="{ECA4E810-1B83-4F52-A1B4-963424B7D7B2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{92DC95B0-0A28-4AD3-BF93-F3CCE57C3EF4}" name="Horário Início" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{15759BDD-DAB8-4237-9124-C5E6858A5618}" name="SEG" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{CF0CB78E-29DD-465B-8E2D-F1615F2A958B}" name="TER" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{658414C9-C59C-4870-B126-1445973D2B7C}" name="QUA" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{9FB34E0C-6004-47EA-858B-76728055608A}" name="QUI" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{B4382311-2972-4950-BB71-D93A24506159}" name="SEX" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{92DC95B0-0A28-4AD3-BF93-F3CCE57C3EF4}" name="Horário Início" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{15759BDD-DAB8-4237-9124-C5E6858A5618}" name="SEG" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{CF0CB78E-29DD-465B-8E2D-F1615F2A958B}" name="TER" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{658414C9-C59C-4870-B126-1445973D2B7C}" name="QUA" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{9FB34E0C-6004-47EA-858B-76728055608A}" name="QUI" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{B4382311-2972-4950-BB71-D93A24506159}" name="SEX" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11816,25 +11860,25 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{60A4BA04-B751-4372-A0FB-F0B9F6B3D8B2}" name="Tabela24" displayName="Tabela24" ref="B2:G10" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{60A4BA04-B751-4372-A0FB-F0B9F6B3D8B2}" name="Tabela24" displayName="Tabela24" ref="B2:G10" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B2:G10" xr:uid="{ECA4E810-1B83-4F52-A1B4-963424B7D7B2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5E53646C-1B31-455B-ADE5-8199B7070414}" name="Horário Início" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{29FBA59F-1F62-43F4-9A5E-A50FCC9007FA}" name="SEG" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{5B567691-4089-44F6-8630-FCE48C000E48}" name="TER" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{E5DB2D0E-4B82-4147-BAD5-B88F1640A422}" name="QUA" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{6BCBCC23-C6E3-4AEC-8B6F-B77ED2DAC389}" name="QUI" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{CA22B810-47B4-4946-8281-B9DFE3DB4395}" name="SEX" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5E53646C-1B31-455B-ADE5-8199B7070414}" name="Horário Início" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{29FBA59F-1F62-43F4-9A5E-A50FCC9007FA}" name="SEG" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5B567691-4089-44F6-8630-FCE48C000E48}" name="TER" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E5DB2D0E-4B82-4147-BAD5-B88F1640A422}" name="QUA" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6BCBCC23-C6E3-4AEC-8B6F-B77ED2DAC389}" name="QUI" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{CA22B810-47B4-4946-8281-B9DFE3DB4395}" name="SEX" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{1C7C795F-708A-4652-9114-C75CBC377127}" name="Tabela23" displayName="Tabela23" ref="A1:V33" totalsRowShown="0" headerRowDxfId="343" headerRowBorderDxfId="342">
-  <autoFilter ref="A1:V33" xr:uid="{1C7C795F-708A-4652-9114-C75CBC377127}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V33">
-    <sortCondition ref="F1:F33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{1C7C795F-708A-4652-9114-C75CBC377127}" name="Tabela23" displayName="Tabela23" ref="A1:V35" totalsRowShown="0" headerRowDxfId="345" headerRowBorderDxfId="344">
+  <autoFilter ref="A1:V35" xr:uid="{1C7C795F-708A-4652-9114-C75CBC377127}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V35">
+    <sortCondition ref="F1:F35"/>
   </sortState>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{C2C54882-EBC5-46F4-A0F3-327303FD9D83}" name="Ano"/>
@@ -11842,79 +11886,79 @@
     <tableColumn id="3" xr3:uid="{4DA49DDC-9DC2-4E75-941C-DA1B31CEF3D7}" name="#"/>
     <tableColumn id="4" xr3:uid="{627A41F5-4AF0-4AE7-97B1-27E0DCB0B009}" name="Início das aulas"/>
     <tableColumn id="5" xr3:uid="{CB169CBC-D25F-41E0-ADAD-19B7C45E902E}" name="Código"/>
-    <tableColumn id="6" xr3:uid="{5D43DC81-AC3A-4E23-8D8B-8E9CD7BB5EA4}" name="Disciplina" dataDxfId="341"/>
+    <tableColumn id="6" xr3:uid="{5D43DC81-AC3A-4E23-8D8B-8E9CD7BB5EA4}" name="Disciplina" dataDxfId="343"/>
     <tableColumn id="22" xr3:uid="{D0C90571-A473-413B-BF08-321930A330EF}" name="Link"/>
-    <tableColumn id="7" xr3:uid="{D9249F96-12C1-47BF-9200-7E094516506C}" name="CH" dataDxfId="340"/>
-    <tableColumn id="8" xr3:uid="{92DF1668-55CA-4523-9361-8F45FDBDD38B}" name="CR" dataDxfId="339">
+    <tableColumn id="7" xr3:uid="{D9249F96-12C1-47BF-9200-7E094516506C}" name="CH" dataDxfId="342"/>
+    <tableColumn id="8" xr3:uid="{92DF1668-55CA-4523-9361-8F45FDBDD38B}" name="CR" dataDxfId="341">
       <calculatedColumnFormula>Tabela23[[#This Row],[CH]]/15</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{7B37F945-ABE6-48BC-B7EB-6E70A3682C97}" name="Turma"/>
     <tableColumn id="10" xr3:uid="{DCD44559-62C3-422B-B619-91EE7D879991}" name="Docente"/>
     <tableColumn id="11" xr3:uid="{2AED8CA7-F92E-4DE0-80BB-52FD924D3B12}" name="Composição turma/Alunos a serem atendidos"/>
-    <tableColumn id="12" xr3:uid="{170B83A7-EDDE-4ED1-BA1A-02A247A18C7E}" name="Dia"/>
-    <tableColumn id="21" xr3:uid="{3C970FD2-CA63-4D1A-9A33-804AB2E2108F}" name="Horário"/>
+    <tableColumn id="12" xr3:uid="{170B83A7-EDDE-4ED1-BA1A-02A247A18C7E}" name="Dia" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{3C970FD2-CA63-4D1A-9A33-804AB2E2108F}" name="Horário" dataDxfId="0"/>
     <tableColumn id="13" xr3:uid="{0DD8D6FD-0AA2-4019-8ED4-EED93DE8227B}" name="Programa"/>
     <tableColumn id="14" xr3:uid="{89C01F10-3906-4A2A-B601-7EC50F6FCC46}" name="Prédio"/>
     <tableColumn id="15" xr3:uid="{A01C4A71-80D5-4DCE-96CB-F2F96651D328}" name="Sala"/>
-    <tableColumn id="16" xr3:uid="{C48A839C-9D8C-4E18-A829-7731E149924D}" name="Isolada" dataDxfId="338"/>
-    <tableColumn id="17" xr3:uid="{8A13002B-02A1-441F-8CAB-F93BAE29CD70}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="337"/>
-    <tableColumn id="18" xr3:uid="{359F776B-D550-4177-95F5-E2D0B286E5B6}" name="Plano de ensino" dataDxfId="336"/>
-    <tableColumn id="19" xr3:uid="{1ADE64C2-D922-4F56-A5D8-FC54463EEF8E}" name="Idioma" dataDxfId="335"/>
-    <tableColumn id="20" xr3:uid="{5761C65A-7194-44B8-AD1C-37F8ACB02D3C}" name="Observação" dataDxfId="334"/>
+    <tableColumn id="16" xr3:uid="{C48A839C-9D8C-4E18-A829-7731E149924D}" name="Isolada" dataDxfId="340"/>
+    <tableColumn id="17" xr3:uid="{8A13002B-02A1-441F-8CAB-F93BAE29CD70}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="339"/>
+    <tableColumn id="18" xr3:uid="{359F776B-D550-4177-95F5-E2D0B286E5B6}" name="Plano de ensino" dataDxfId="338"/>
+    <tableColumn id="19" xr3:uid="{1ADE64C2-D922-4F56-A5D8-FC54463EEF8E}" name="Idioma" dataDxfId="337"/>
+    <tableColumn id="20" xr3:uid="{5761C65A-7194-44B8-AD1C-37F8ACB02D3C}" name="Observação" dataDxfId="336"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{6B101FD2-4DA7-4384-8003-797DD4F552CF}" name="Tabela225" displayName="Tabela225" ref="B2:G15" totalsRowShown="0" headerRowDxfId="333" headerRowBorderDxfId="332" tableBorderDxfId="331">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{6B101FD2-4DA7-4384-8003-797DD4F552CF}" name="Tabela225" displayName="Tabela225" ref="B2:G15" totalsRowShown="0" headerRowDxfId="335" headerRowBorderDxfId="334" tableBorderDxfId="333">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB0250D4-45CA-46E9-AFFB-0FA993DF538D}" name="Horário Início" dataDxfId="330"/>
-    <tableColumn id="3" xr3:uid="{38F44960-6EFD-47C3-911E-36D3F351D6A6}" name="SEG" dataDxfId="329"/>
-    <tableColumn id="4" xr3:uid="{95B23A64-0A47-4EFC-825C-90C99F42D1C0}" name="TER" dataDxfId="328"/>
-    <tableColumn id="5" xr3:uid="{F51164DC-F5DB-4D80-93E8-749048F53B40}" name="QUA" dataDxfId="327"/>
-    <tableColumn id="6" xr3:uid="{FE8AB3D2-B239-4E62-BD97-3AAB3B130B32}" name="QUI" dataDxfId="326"/>
-    <tableColumn id="7" xr3:uid="{BA8C5B28-5ABD-4CFC-A259-31B32111B4E4}" name="SEX" dataDxfId="325"/>
+    <tableColumn id="1" xr3:uid="{AB0250D4-45CA-46E9-AFFB-0FA993DF538D}" name="Horário Início" dataDxfId="332"/>
+    <tableColumn id="3" xr3:uid="{38F44960-6EFD-47C3-911E-36D3F351D6A6}" name="SEG" dataDxfId="331"/>
+    <tableColumn id="4" xr3:uid="{95B23A64-0A47-4EFC-825C-90C99F42D1C0}" name="TER" dataDxfId="330"/>
+    <tableColumn id="5" xr3:uid="{F51164DC-F5DB-4D80-93E8-749048F53B40}" name="QUA" dataDxfId="329"/>
+    <tableColumn id="6" xr3:uid="{FE8AB3D2-B239-4E62-BD97-3AAB3B130B32}" name="QUI" dataDxfId="328"/>
+    <tableColumn id="7" xr3:uid="{BA8C5B28-5ABD-4CFC-A259-31B32111B4E4}" name="SEX" dataDxfId="327"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{9EB75BCE-4E72-4EA8-805D-B3E1B3398961}" name="Tabela22" displayName="Tabela22" ref="A1:P31" totalsRowShown="0" headerRowDxfId="324" dataDxfId="323">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{9EB75BCE-4E72-4EA8-805D-B3E1B3398961}" name="Tabela22" displayName="Tabela22" ref="A1:P31" totalsRowShown="0" headerRowDxfId="326" dataDxfId="325">
   <autoFilter ref="A1:P31" xr:uid="{9EB75BCE-4E72-4EA8-805D-B3E1B3398961}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{EAC6431D-37B4-4852-9B7B-47C2F4E935FB}" name="#" dataDxfId="322"/>
-    <tableColumn id="2" xr3:uid="{05A27E3D-46D9-4A59-8002-61C0E9A01DB6}" name="Código" dataDxfId="321"/>
-    <tableColumn id="3" xr3:uid="{25703B8C-DC32-4111-A653-66AB4B3A0F52}" name="Disciplina" dataDxfId="320"/>
-    <tableColumn id="4" xr3:uid="{7F719D78-2F05-4A5C-B671-E4BB78715F5A}" name="CH" dataDxfId="319"/>
-    <tableColumn id="5" xr3:uid="{86D97934-68F9-4758-AB89-0B334EEBBF21}" name="CR" dataDxfId="318"/>
-    <tableColumn id="6" xr3:uid="{C9A4184C-E785-49DC-9EE0-D617E11BE6FB}" name="Turma" dataDxfId="317"/>
-    <tableColumn id="7" xr3:uid="{EE71C630-BA10-47B5-B965-1FCAE0A9C126}" name="Docente" dataDxfId="316"/>
-    <tableColumn id="8" xr3:uid="{BB3881E0-ED74-42D2-A11A-90510909D5C6}" name="Composição turma/Alunos a serem atendidos" dataDxfId="315"/>
-    <tableColumn id="9" xr3:uid="{BB04E2CC-308B-417A-98A2-A382C11E7913}" name="Horário" dataDxfId="314"/>
-    <tableColumn id="10" xr3:uid="{24C445AD-6BA8-497C-B477-610607A0D274}" name="Programa" dataDxfId="313"/>
-    <tableColumn id="11" xr3:uid="{BD1C7E23-9057-42C7-912C-FF8FA7430252}" name="Sala" dataDxfId="312"/>
-    <tableColumn id="12" xr3:uid="{0CB421B0-315A-4AF6-9742-7FFA3C5CCED4}" name="Início das aulas" dataDxfId="311"/>
-    <tableColumn id="13" xr3:uid="{9B1ECCA9-8271-4717-A517-1B1400DF8404}" name="Isolada" dataDxfId="310"/>
-    <tableColumn id="14" xr3:uid="{5156DB5C-9D69-4D52-8B89-1850234C6112}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="309"/>
-    <tableColumn id="15" xr3:uid="{1ACD7B80-A123-45E3-BBAA-0A0DDCBA10A5}" name="Plano de ensino" dataDxfId="308"/>
-    <tableColumn id="16" xr3:uid="{6AFCC327-1C22-4CDA-ABC9-D3F8DBE8C934}" name="Idioma" dataDxfId="307"/>
+    <tableColumn id="1" xr3:uid="{EAC6431D-37B4-4852-9B7B-47C2F4E935FB}" name="#" dataDxfId="324"/>
+    <tableColumn id="2" xr3:uid="{05A27E3D-46D9-4A59-8002-61C0E9A01DB6}" name="Código" dataDxfId="323"/>
+    <tableColumn id="3" xr3:uid="{25703B8C-DC32-4111-A653-66AB4B3A0F52}" name="Disciplina" dataDxfId="322"/>
+    <tableColumn id="4" xr3:uid="{7F719D78-2F05-4A5C-B671-E4BB78715F5A}" name="CH" dataDxfId="321"/>
+    <tableColumn id="5" xr3:uid="{86D97934-68F9-4758-AB89-0B334EEBBF21}" name="CR" dataDxfId="320"/>
+    <tableColumn id="6" xr3:uid="{C9A4184C-E785-49DC-9EE0-D617E11BE6FB}" name="Turma" dataDxfId="319"/>
+    <tableColumn id="7" xr3:uid="{EE71C630-BA10-47B5-B965-1FCAE0A9C126}" name="Docente" dataDxfId="318"/>
+    <tableColumn id="8" xr3:uid="{BB3881E0-ED74-42D2-A11A-90510909D5C6}" name="Composição turma/Alunos a serem atendidos" dataDxfId="317"/>
+    <tableColumn id="9" xr3:uid="{BB04E2CC-308B-417A-98A2-A382C11E7913}" name="Horário" dataDxfId="316"/>
+    <tableColumn id="10" xr3:uid="{24C445AD-6BA8-497C-B477-610607A0D274}" name="Programa" dataDxfId="315"/>
+    <tableColumn id="11" xr3:uid="{BD1C7E23-9057-42C7-912C-FF8FA7430252}" name="Sala" dataDxfId="314"/>
+    <tableColumn id="12" xr3:uid="{0CB421B0-315A-4AF6-9742-7FFA3C5CCED4}" name="Início das aulas" dataDxfId="313"/>
+    <tableColumn id="13" xr3:uid="{9B1ECCA9-8271-4717-A517-1B1400DF8404}" name="Isolada" dataDxfId="312"/>
+    <tableColumn id="14" xr3:uid="{5156DB5C-9D69-4D52-8B89-1850234C6112}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="311"/>
+    <tableColumn id="15" xr3:uid="{1ACD7B80-A123-45E3-BBAA-0A0DDCBA10A5}" name="Plano de ensino" dataDxfId="310"/>
+    <tableColumn id="16" xr3:uid="{6AFCC327-1C22-4CDA-ABC9-D3F8DBE8C934}" name="Idioma" dataDxfId="309"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82DF69AE-F627-4072-A99A-AC6F89832854}" name="Tabela27" displayName="Tabela27" ref="B2:G18" totalsRowShown="0" headerRowDxfId="306" dataDxfId="304" headerRowBorderDxfId="305" tableBorderDxfId="303">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82DF69AE-F627-4072-A99A-AC6F89832854}" name="Tabela27" displayName="Tabela27" ref="B2:G18" totalsRowShown="0" headerRowDxfId="308" dataDxfId="306" headerRowBorderDxfId="307" tableBorderDxfId="305">
   <autoFilter ref="B2:G18" xr:uid="{ECA4E810-1B83-4F52-A1B4-963424B7D7B2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5516AF19-2379-45D5-B5BF-06838120993D}" name="Horário Início" dataDxfId="302"/>
-    <tableColumn id="3" xr3:uid="{4C1D48A1-4B8F-499A-9C67-E76ABC4F2D95}" name="SEG" dataDxfId="301"/>
-    <tableColumn id="4" xr3:uid="{640F729D-AA67-4B77-BD5A-1D2EC84E54DA}" name="TER" dataDxfId="300"/>
-    <tableColumn id="5" xr3:uid="{B0A397BE-1DC6-4910-BA40-73DA4FA31D32}" name="QUA" dataDxfId="299"/>
-    <tableColumn id="6" xr3:uid="{A327E522-79DD-40D4-8DDE-53F39F19CFE8}" name="QUI" dataDxfId="298"/>
-    <tableColumn id="7" xr3:uid="{4B00F573-2AE2-4891-AC20-DFA27FBA7C77}" name="SEX" dataDxfId="297"/>
+    <tableColumn id="1" xr3:uid="{5516AF19-2379-45D5-B5BF-06838120993D}" name="Horário Início" dataDxfId="304"/>
+    <tableColumn id="3" xr3:uid="{4C1D48A1-4B8F-499A-9C67-E76ABC4F2D95}" name="SEG" dataDxfId="303"/>
+    <tableColumn id="4" xr3:uid="{640F729D-AA67-4B77-BD5A-1D2EC84E54DA}" name="TER" dataDxfId="302"/>
+    <tableColumn id="5" xr3:uid="{B0A397BE-1DC6-4910-BA40-73DA4FA31D32}" name="QUA" dataDxfId="301"/>
+    <tableColumn id="6" xr3:uid="{A327E522-79DD-40D4-8DDE-53F39F19CFE8}" name="QUI" dataDxfId="300"/>
+    <tableColumn id="7" xr3:uid="{4B00F573-2AE2-4891-AC20-DFA27FBA7C77}" name="SEX" dataDxfId="299"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11935,57 +11979,57 @@
     <tableColumn id="5" xr3:uid="{DECDE89D-401C-4E24-B283-2821007F0813}" name="Professor"/>
     <tableColumn id="6" xr3:uid="{CA4C921A-AADB-4F75-A3DF-D64A304FC3A4}" name="Programa"/>
     <tableColumn id="7" xr3:uid="{2C0A65AA-12FB-4536-92F7-3DDF07E95207}" name="Oferta para Disciplina Isolada"/>
-    <tableColumn id="8" xr3:uid="{4D492F9B-1D11-4984-B639-C996EED10E9C}" name="Inicio das aulas" dataDxfId="296"/>
+    <tableColumn id="8" xr3:uid="{4D492F9B-1D11-4984-B639-C996EED10E9C}" name="Inicio das aulas" dataDxfId="298"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3B775D55-75CD-42E5-AA00-95F2D3BEF696}" name="Tabela20" displayName="Tabela20" ref="A1:P24" totalsRowShown="0" headerRowDxfId="295" dataDxfId="294">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3B775D55-75CD-42E5-AA00-95F2D3BEF696}" name="Tabela20" displayName="Tabela20" ref="A1:P24" totalsRowShown="0" headerRowDxfId="297" dataDxfId="296">
   <autoFilter ref="A1:P24" xr:uid="{3B775D55-75CD-42E5-AA00-95F2D3BEF696}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{DBDC420D-A4AD-4294-BA0A-23F164F5D5AB}" name="#" dataDxfId="293"/>
-    <tableColumn id="2" xr3:uid="{30B85364-9998-4901-A5E8-D52DAECDBEDC}" name="Código" dataDxfId="292"/>
-    <tableColumn id="3" xr3:uid="{B634A9D7-1968-416D-A582-D51B590A553E}" name="Disciplina" dataDxfId="291"/>
-    <tableColumn id="4" xr3:uid="{3DB0ADD8-3DB3-4B24-BE94-A366047CDE9C}" name="CH" dataDxfId="290"/>
-    <tableColumn id="5" xr3:uid="{3069CCC5-513F-4EA3-9FB6-95648CE78632}" name="CR" dataDxfId="289"/>
-    <tableColumn id="6" xr3:uid="{F72BB1F7-D439-4DC8-B0D8-E559BF5B9007}" name="Turma" dataDxfId="288"/>
-    <tableColumn id="7" xr3:uid="{FD841673-A2AF-4BD7-B89D-4E6F8F639C02}" name="Docente" dataDxfId="287"/>
-    <tableColumn id="8" xr3:uid="{B5CFD90C-A7E3-4D3A-96A1-C8F77AE7C4EA}" name="Composição turma/Alunos a serem atendidos" dataDxfId="286"/>
-    <tableColumn id="9" xr3:uid="{534CF171-D58B-4E37-9475-884AD1DE6AB5}" name="Horário" dataDxfId="285"/>
-    <tableColumn id="10" xr3:uid="{46DFE3C6-1B31-4D81-807F-788862D6AA19}" name="Programa" dataDxfId="284"/>
-    <tableColumn id="11" xr3:uid="{A20C1C92-ADFB-454C-B0FC-38D4D6D3B1C7}" name="Sala" dataDxfId="283"/>
-    <tableColumn id="12" xr3:uid="{43B8D6C3-53A6-4ADD-9971-B68F2C23D0B7}" name="Início das aulas" dataDxfId="282"/>
-    <tableColumn id="13" xr3:uid="{AF41AC28-B0B9-4B75-BA6C-7B104577BB8C}" name="Isolada" dataDxfId="281"/>
-    <tableColumn id="14" xr3:uid="{F6F2C649-B8BF-412D-852C-A12FB5F3D532}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="280"/>
-    <tableColumn id="15" xr3:uid="{D93088A1-498A-4FBE-BB53-83C9E3CF66DA}" name="Plano de ensino" dataDxfId="279"/>
-    <tableColumn id="16" xr3:uid="{ED025FD2-6C4C-4F9E-9C9E-460E17A4919F}" name="Idioma" dataDxfId="278"/>
+    <tableColumn id="1" xr3:uid="{DBDC420D-A4AD-4294-BA0A-23F164F5D5AB}" name="#" dataDxfId="295"/>
+    <tableColumn id="2" xr3:uid="{30B85364-9998-4901-A5E8-D52DAECDBEDC}" name="Código" dataDxfId="294"/>
+    <tableColumn id="3" xr3:uid="{B634A9D7-1968-416D-A582-D51B590A553E}" name="Disciplina" dataDxfId="293"/>
+    <tableColumn id="4" xr3:uid="{3DB0ADD8-3DB3-4B24-BE94-A366047CDE9C}" name="CH" dataDxfId="292"/>
+    <tableColumn id="5" xr3:uid="{3069CCC5-513F-4EA3-9FB6-95648CE78632}" name="CR" dataDxfId="291"/>
+    <tableColumn id="6" xr3:uid="{F72BB1F7-D439-4DC8-B0D8-E559BF5B9007}" name="Turma" dataDxfId="290"/>
+    <tableColumn id="7" xr3:uid="{FD841673-A2AF-4BD7-B89D-4E6F8F639C02}" name="Docente" dataDxfId="289"/>
+    <tableColumn id="8" xr3:uid="{B5CFD90C-A7E3-4D3A-96A1-C8F77AE7C4EA}" name="Composição turma/Alunos a serem atendidos" dataDxfId="288"/>
+    <tableColumn id="9" xr3:uid="{534CF171-D58B-4E37-9475-884AD1DE6AB5}" name="Horário" dataDxfId="287"/>
+    <tableColumn id="10" xr3:uid="{46DFE3C6-1B31-4D81-807F-788862D6AA19}" name="Programa" dataDxfId="286"/>
+    <tableColumn id="11" xr3:uid="{A20C1C92-ADFB-454C-B0FC-38D4D6D3B1C7}" name="Sala" dataDxfId="285"/>
+    <tableColumn id="12" xr3:uid="{43B8D6C3-53A6-4ADD-9971-B68F2C23D0B7}" name="Início das aulas" dataDxfId="284"/>
+    <tableColumn id="13" xr3:uid="{AF41AC28-B0B9-4B75-BA6C-7B104577BB8C}" name="Isolada" dataDxfId="283"/>
+    <tableColumn id="14" xr3:uid="{F6F2C649-B8BF-412D-852C-A12FB5F3D532}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="282"/>
+    <tableColumn id="15" xr3:uid="{D93088A1-498A-4FBE-BB53-83C9E3CF66DA}" name="Plano de ensino" dataDxfId="281"/>
+    <tableColumn id="16" xr3:uid="{ED025FD2-6C4C-4F9E-9C9E-460E17A4919F}" name="Idioma" dataDxfId="280"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{23D300BD-4426-495C-873F-FB18164F85E9}" name="Tabela19" displayName="Tabela19" ref="A1:P25" totalsRowShown="0" headerRowDxfId="277" dataDxfId="276">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{23D300BD-4426-495C-873F-FB18164F85E9}" name="Tabela19" displayName="Tabela19" ref="A1:P25" totalsRowShown="0" headerRowDxfId="279" dataDxfId="278">
   <autoFilter ref="A1:P25" xr:uid="{23D300BD-4426-495C-873F-FB18164F85E9}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{D2D283CA-21E1-4952-9164-8A7C6AD01F4C}" name="#" dataDxfId="275"/>
-    <tableColumn id="2" xr3:uid="{DEC2724E-E0F6-4255-A4F9-A8B63B847BF0}" name="Código" dataDxfId="274"/>
-    <tableColumn id="3" xr3:uid="{13842A33-E27C-4569-8E44-A06267E9435C}" name="Disciplina" dataDxfId="273"/>
-    <tableColumn id="4" xr3:uid="{136DA879-F709-48AE-AF34-A79D0DBEB7D3}" name="CH" dataDxfId="272"/>
-    <tableColumn id="5" xr3:uid="{65BFC544-3242-4530-9CB6-CAB4598E599F}" name="CR" dataDxfId="271"/>
-    <tableColumn id="6" xr3:uid="{15A4009D-5A3E-4A8C-ADE3-414E8FB8FC81}" name="Turma" dataDxfId="270"/>
-    <tableColumn id="7" xr3:uid="{14E92BFB-AF33-448D-8CB0-711EEA258D03}" name="Docente" dataDxfId="269"/>
-    <tableColumn id="8" xr3:uid="{1CAA9A67-1D78-47C4-8BD2-1CF66F941762}" name="Composição turma/Alunos a serem atendidos" dataDxfId="268"/>
-    <tableColumn id="9" xr3:uid="{8D06A60F-F21B-4763-B3B6-7BC88029FFC1}" name="Horário" dataDxfId="267"/>
-    <tableColumn id="10" xr3:uid="{DE3F1798-F495-4305-8FB3-C8AD753CFC67}" name="Programa" dataDxfId="266"/>
-    <tableColumn id="11" xr3:uid="{A5CDAE4E-3967-405E-8542-DCEB69EDC37D}" name="Sala" dataDxfId="265"/>
-    <tableColumn id="12" xr3:uid="{8CA8F683-FC3B-4274-8EC7-EAF3D9FF5D42}" name="Início das aulas" dataDxfId="264"/>
-    <tableColumn id="13" xr3:uid="{00BF9373-FCAD-4467-8079-518D8E2D0431}" name="Isolada" dataDxfId="263"/>
-    <tableColumn id="14" xr3:uid="{04DC54BC-52BB-48FD-BEA8-F18A1D0011BB}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="262"/>
-    <tableColumn id="15" xr3:uid="{A1A88B81-2C88-468F-B9ED-AE5815030382}" name="Plano de ensino" dataDxfId="261"/>
-    <tableColumn id="16" xr3:uid="{5FA3ED57-0680-4584-B920-B3D678BC81DD}" name="Idioma" dataDxfId="260"/>
+    <tableColumn id="1" xr3:uid="{D2D283CA-21E1-4952-9164-8A7C6AD01F4C}" name="#" dataDxfId="277"/>
+    <tableColumn id="2" xr3:uid="{DEC2724E-E0F6-4255-A4F9-A8B63B847BF0}" name="Código" dataDxfId="276"/>
+    <tableColumn id="3" xr3:uid="{13842A33-E27C-4569-8E44-A06267E9435C}" name="Disciplina" dataDxfId="275"/>
+    <tableColumn id="4" xr3:uid="{136DA879-F709-48AE-AF34-A79D0DBEB7D3}" name="CH" dataDxfId="274"/>
+    <tableColumn id="5" xr3:uid="{65BFC544-3242-4530-9CB6-CAB4598E599F}" name="CR" dataDxfId="273"/>
+    <tableColumn id="6" xr3:uid="{15A4009D-5A3E-4A8C-ADE3-414E8FB8FC81}" name="Turma" dataDxfId="272"/>
+    <tableColumn id="7" xr3:uid="{14E92BFB-AF33-448D-8CB0-711EEA258D03}" name="Docente" dataDxfId="271"/>
+    <tableColumn id="8" xr3:uid="{1CAA9A67-1D78-47C4-8BD2-1CF66F941762}" name="Composição turma/Alunos a serem atendidos" dataDxfId="270"/>
+    <tableColumn id="9" xr3:uid="{8D06A60F-F21B-4763-B3B6-7BC88029FFC1}" name="Horário" dataDxfId="269"/>
+    <tableColumn id="10" xr3:uid="{DE3F1798-F495-4305-8FB3-C8AD753CFC67}" name="Programa" dataDxfId="268"/>
+    <tableColumn id="11" xr3:uid="{A5CDAE4E-3967-405E-8542-DCEB69EDC37D}" name="Sala" dataDxfId="267"/>
+    <tableColumn id="12" xr3:uid="{8CA8F683-FC3B-4274-8EC7-EAF3D9FF5D42}" name="Início das aulas" dataDxfId="266"/>
+    <tableColumn id="13" xr3:uid="{00BF9373-FCAD-4467-8079-518D8E2D0431}" name="Isolada" dataDxfId="265"/>
+    <tableColumn id="14" xr3:uid="{04DC54BC-52BB-48FD-BEA8-F18A1D0011BB}" name="CL - Classif - Obrigatória/Opcional" dataDxfId="264"/>
+    <tableColumn id="15" xr3:uid="{A1A88B81-2C88-468F-B9ED-AE5815030382}" name="Plano de ensino" dataDxfId="263"/>
+    <tableColumn id="16" xr3:uid="{5FA3ED57-0680-4584-B920-B3D678BC81DD}" name="Idioma" dataDxfId="262"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -58026,27 +58070,28 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="65.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="71" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.21875" bestFit="1" customWidth="1"/>
@@ -58055,9 +58100,11 @@
     <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.33203125" style="71" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="210" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="150" t="s">
         <v>783</v>
       </c>
@@ -58125,7 +58172,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2025</v>
       </c>
@@ -58142,7 +58189,7 @@
         <v>91</v>
       </c>
       <c r="G2" s="230" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H2" s="5">
         <v>60</v>
@@ -58160,10 +58207,10 @@
       <c r="L2">
         <v>5</v>
       </c>
-      <c r="M2" s="165" t="s">
+      <c r="M2" s="233" t="s">
         <v>982</v>
       </c>
-      <c r="N2" s="180" t="s">
+      <c r="N2" s="237" t="s">
         <v>985</v>
       </c>
       <c r="R2" s="5"/>
@@ -58176,7 +58223,7 @@
       <c r="U2" s="5"/>
       <c r="V2" s="71"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -58193,7 +58240,7 @@
         <v>85</v>
       </c>
       <c r="G3" s="230" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H3" s="5">
         <v>30</v>
@@ -58208,7 +58255,6 @@
       <c r="L3">
         <v>40</v>
       </c>
-      <c r="N3" s="178"/>
       <c r="R3" s="169" t="s">
         <v>128</v>
       </c>
@@ -58221,7 +58267,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -58238,7 +58284,7 @@
         <v>89</v>
       </c>
       <c r="G4" s="230" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H4" s="5">
         <v>30</v>
@@ -58253,7 +58299,6 @@
       <c r="L4">
         <v>40</v>
       </c>
-      <c r="N4" s="178"/>
       <c r="R4" s="169" t="s">
         <v>128</v>
       </c>
@@ -58266,7 +58311,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2025</v>
       </c>
@@ -58283,7 +58328,7 @@
         <v>80</v>
       </c>
       <c r="G5" s="230" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H5" s="5">
         <v>60</v>
@@ -58298,10 +58343,10 @@
       <c r="L5">
         <v>40</v>
       </c>
-      <c r="M5" s="164" t="s">
+      <c r="M5" s="234" t="s">
         <v>984</v>
       </c>
-      <c r="N5" s="177" t="s">
+      <c r="N5" s="239" t="s">
         <v>988</v>
       </c>
       <c r="R5" s="169" t="s">
@@ -58316,7 +58361,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -58333,7 +58378,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="230" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H6" s="5">
         <v>60</v>
@@ -58348,10 +58393,10 @@
       <c r="L6">
         <v>40</v>
       </c>
-      <c r="M6" s="164" t="s">
+      <c r="M6" s="234" t="s">
         <v>984</v>
       </c>
-      <c r="N6" s="177" t="s">
+      <c r="N6" s="239" t="s">
         <v>988</v>
       </c>
       <c r="R6" s="169" t="s">
@@ -58366,7 +58411,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -58383,7 +58428,7 @@
         <v>335</v>
       </c>
       <c r="G7" s="229" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H7" s="5">
         <v>60</v>
@@ -58401,10 +58446,10 @@
       <c r="L7">
         <v>20</v>
       </c>
-      <c r="M7" s="165" t="s">
+      <c r="M7" s="233" t="s">
         <v>982</v>
       </c>
-      <c r="N7" s="177" t="s">
+      <c r="N7" s="239" t="s">
         <v>988</v>
       </c>
       <c r="R7" s="5"/>
@@ -58417,7 +58462,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="71"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -58434,7 +58479,7 @@
         <v>1030</v>
       </c>
       <c r="G8" s="229" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H8" s="5">
         <v>60</v>
@@ -58452,10 +58497,10 @@
       <c r="L8">
         <v>20</v>
       </c>
-      <c r="M8" s="164" t="s">
+      <c r="M8" s="234" t="s">
         <v>984</v>
       </c>
-      <c r="N8" s="181" t="s">
+      <c r="N8" s="238" t="s">
         <v>986</v>
       </c>
       <c r="R8" s="5"/>
@@ -58468,7 +58513,7 @@
       <c r="U8" s="5"/>
       <c r="V8" s="71"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -58485,7 +58530,7 @@
         <v>818</v>
       </c>
       <c r="G9" s="229" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H9" s="5">
         <v>60</v>
@@ -58503,10 +58548,10 @@
       <c r="L9">
         <v>20</v>
       </c>
-      <c r="M9" s="165" t="s">
+      <c r="M9" s="233" t="s">
         <v>982</v>
       </c>
-      <c r="N9" s="181" t="s">
+      <c r="N9" s="238" t="s">
         <v>986</v>
       </c>
       <c r="R9" s="5"/>
@@ -58519,7 +58564,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="71"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2025</v>
       </c>
@@ -58536,7 +58581,7 @@
         <v>185</v>
       </c>
       <c r="G10" s="229" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H10" s="5">
         <v>60</v>
@@ -58554,10 +58599,10 @@
       <c r="L10">
         <v>40</v>
       </c>
-      <c r="M10" s="165" t="s">
+      <c r="M10" s="233" t="s">
         <v>982</v>
       </c>
-      <c r="N10" s="206" t="s">
+      <c r="N10" s="236" t="s">
         <v>983</v>
       </c>
       <c r="R10" s="5"/>
@@ -58568,7 +58613,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="71"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -58585,7 +58630,7 @@
         <v>564</v>
       </c>
       <c r="G11" s="229" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H11" s="5">
         <v>60</v>
@@ -58603,10 +58648,10 @@
       <c r="L11">
         <v>20</v>
       </c>
-      <c r="M11" s="165" t="s">
+      <c r="M11" s="233" t="s">
         <v>982</v>
       </c>
-      <c r="N11" s="180" t="s">
+      <c r="N11" s="237" t="s">
         <v>985</v>
       </c>
       <c r="R11" s="172" t="s">
@@ -58619,7 +58664,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="71"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -58636,7 +58681,7 @@
         <v>133</v>
       </c>
       <c r="G12" s="229" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H12" s="5">
         <v>60</v>
@@ -58654,10 +58699,10 @@
       <c r="L12">
         <v>20</v>
       </c>
-      <c r="M12" s="165" t="s">
+      <c r="M12" s="233" t="s">
         <v>982</v>
       </c>
-      <c r="N12" s="180" t="s">
+      <c r="N12" s="237" t="s">
         <v>985</v>
       </c>
       <c r="R12" s="169" t="s">
@@ -58672,7 +58717,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2025</v>
       </c>
@@ -58689,7 +58734,7 @@
         <v>151</v>
       </c>
       <c r="G13" s="229" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H13" s="5">
         <v>60</v>
@@ -58707,10 +58752,10 @@
       <c r="L13">
         <v>20</v>
       </c>
-      <c r="M13" s="165" t="s">
+      <c r="M13" s="233" t="s">
         <v>982</v>
       </c>
-      <c r="N13" s="181" t="s">
+      <c r="N13" s="238" t="s">
         <v>986</v>
       </c>
       <c r="R13" s="172" t="s">
@@ -58725,7 +58770,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2025</v>
       </c>
@@ -58742,7 +58787,7 @@
         <v>154</v>
       </c>
       <c r="G14" s="229" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H14" s="5">
         <v>60</v>
@@ -58760,10 +58805,10 @@
       <c r="L14">
         <v>20</v>
       </c>
-      <c r="M14" s="164" t="s">
+      <c r="M14" s="234" t="s">
         <v>984</v>
       </c>
-      <c r="N14" s="177" t="s">
+      <c r="N14" s="239" t="s">
         <v>988</v>
       </c>
       <c r="R14" s="5"/>
@@ -58776,7 +58821,7 @@
       <c r="U14" s="5"/>
       <c r="V14" s="71"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2025</v>
       </c>
@@ -58784,48 +58829,46 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="167"/>
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="231" t="s">
+        <v>654</v>
+      </c>
+      <c r="G15" s="229" t="s">
+        <v>1089</v>
+      </c>
       <c r="H15" s="5">
         <v>60</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="232">
         <f>Tabela23[[#This Row],[CH]]/15</f>
         <v>4</v>
       </c>
-      <c r="J15" s="167" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="167" t="s">
-        <v>291</v>
-      </c>
-      <c r="L15" s="167">
-        <v>20</v>
-      </c>
-      <c r="M15" s="167"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="167"/>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="167"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="168" t="s">
-        <v>464</v>
-      </c>
-      <c r="T15" s="171"/>
-      <c r="U15" s="171"/>
-      <c r="V15" s="158" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" s="233" t="s">
+        <v>982</v>
+      </c>
+      <c r="N15" s="241" t="s">
+        <v>1003</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="71"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2025</v>
       </c>
@@ -58833,17 +58876,16 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" t="s">
-        <v>614</v>
-      </c>
-      <c r="G16" s="229" t="s">
-        <v>1076</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="167"/>
       <c r="H16" s="5">
         <v>60</v>
       </c>
@@ -58851,32 +58893,31 @@
         <f>Tabela23[[#This Row],[CH]]/15</f>
         <v>4</v>
       </c>
-      <c r="J16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" t="s">
-        <v>359</v>
-      </c>
-      <c r="L16">
+      <c r="J16" s="167" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="167" t="s">
+        <v>291</v>
+      </c>
+      <c r="L16" s="167">
         <v>20</v>
       </c>
-      <c r="M16" s="165" t="s">
-        <v>982</v>
-      </c>
-      <c r="N16" s="179" t="s">
-        <v>989</v>
-      </c>
-      <c r="R16" s="5"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="171"/>
       <c r="S16" s="168" t="s">
         <v>464</v>
       </c>
-      <c r="T16" s="172" t="s">
-        <v>143</v>
-      </c>
-      <c r="U16" s="5"/>
-      <c r="V16" s="71"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T16" s="171"/>
+      <c r="U16" s="171"/>
+      <c r="V16" s="158" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -58884,13 +58925,13 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>614</v>
       </c>
       <c r="G17" s="229" t="s">
         <v>1075</v>
@@ -58903,19 +58944,19 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="L17">
         <v>20</v>
       </c>
-      <c r="M17" s="164" t="s">
-        <v>984</v>
-      </c>
-      <c r="N17" s="207" t="s">
-        <v>1003</v>
+      <c r="M17" s="233" t="s">
+        <v>982</v>
+      </c>
+      <c r="N17" s="240" t="s">
+        <v>989</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="168" t="s">
@@ -58927,7 +58968,7 @@
       <c r="U17" s="5"/>
       <c r="V17" s="71"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2025</v>
       </c>
@@ -58935,17 +58976,16 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" t="s">
-        <v>976</v>
-      </c>
-      <c r="G18" s="229" t="s">
-        <v>1074</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="167" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="242"/>
       <c r="H18" s="5">
         <v>60</v>
       </c>
@@ -58953,32 +58993,35 @@
         <f>Tabela23[[#This Row],[CH]]/15</f>
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>145</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1032</v>
-      </c>
-      <c r="L18">
+      <c r="J18" s="167" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="167" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="167">
         <v>20</v>
       </c>
-      <c r="M18" s="165" t="s">
-        <v>982</v>
-      </c>
-      <c r="N18" s="181" t="s">
-        <v>986</v>
-      </c>
-      <c r="R18" s="5"/>
+      <c r="M18" s="234" t="s">
+        <v>984</v>
+      </c>
+      <c r="N18" s="241" t="s">
+        <v>1003</v>
+      </c>
+      <c r="O18" s="167"/>
+      <c r="P18" s="167"/>
+      <c r="Q18" s="167"/>
+      <c r="R18" s="171"/>
       <c r="S18" s="168" t="s">
         <v>464</v>
       </c>
       <c r="T18" s="172" t="s">
         <v>143</v>
       </c>
-      <c r="U18" s="5"/>
-      <c r="V18" s="71"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U18" s="171"/>
+      <c r="V18" s="158"/>
+    </row>
+    <row r="19" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2025</v>
       </c>
@@ -58986,16 +59029,16 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>976</v>
       </c>
       <c r="G19" s="229" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H19" s="5">
         <v>60</v>
@@ -59005,19 +59048,19 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>1032</v>
       </c>
       <c r="L19">
         <v>20</v>
       </c>
-      <c r="M19" s="165" t="s">
+      <c r="M19" s="233" t="s">
         <v>982</v>
       </c>
-      <c r="N19" s="180" t="s">
-        <v>985</v>
+      <c r="N19" s="238" t="s">
+        <v>986</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="168" t="s">
@@ -59029,7 +59072,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="71"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2025</v>
       </c>
@@ -59037,16 +59080,16 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
         <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>598</v>
+        <v>168</v>
       </c>
       <c r="G20" s="229" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H20" s="5">
         <v>60</v>
@@ -59056,19 +59099,19 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L20">
         <v>20</v>
       </c>
-      <c r="M20" s="164" t="s">
-        <v>984</v>
-      </c>
-      <c r="N20" s="177" t="s">
-        <v>988</v>
+      <c r="M20" s="233" t="s">
+        <v>982</v>
+      </c>
+      <c r="N20" s="237" t="s">
+        <v>985</v>
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="168" t="s">
@@ -59080,7 +59123,7 @@
       <c r="U20" s="5"/>
       <c r="V20" s="71"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2025</v>
       </c>
@@ -59088,16 +59131,16 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>1057</v>
+        <v>598</v>
       </c>
       <c r="G21" s="229" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H21" s="5">
         <v>60</v>
@@ -59107,19 +59150,19 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="L21">
         <v>20</v>
       </c>
-      <c r="M21" s="165" t="s">
-        <v>982</v>
-      </c>
-      <c r="N21" s="181" t="s">
-        <v>986</v>
+      <c r="M21" s="234" t="s">
+        <v>984</v>
+      </c>
+      <c r="N21" s="239" t="s">
+        <v>988</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="168" t="s">
@@ -59131,7 +59174,7 @@
       <c r="U21" s="5"/>
       <c r="V21" s="71"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2025</v>
       </c>
@@ -59139,16 +59182,16 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>275</v>
+        <v>1057</v>
       </c>
       <c r="G22" s="229" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H22" s="5">
         <v>60</v>
@@ -59158,23 +59201,21 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="L22">
-        <v>10</v>
-      </c>
-      <c r="M22" s="164" t="s">
-        <v>984</v>
-      </c>
-      <c r="N22" s="181" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="233" t="s">
+        <v>982</v>
+      </c>
+      <c r="N22" s="238" t="s">
         <v>986</v>
       </c>
-      <c r="R22" s="172" t="s">
-        <v>143</v>
-      </c>
+      <c r="R22" s="5"/>
       <c r="S22" s="168" t="s">
         <v>464</v>
       </c>
@@ -59182,11 +59223,9 @@
         <v>143</v>
       </c>
       <c r="U22" s="5"/>
-      <c r="V22" s="174" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V22" s="71"/>
+    </row>
+    <row r="23" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2025</v>
       </c>
@@ -59194,16 +59233,16 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="G23" s="229" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H23" s="5">
         <v>60</v>
@@ -59213,29 +59252,35 @@
         <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="L23">
-        <v>20</v>
-      </c>
-      <c r="M23" s="165" t="s">
-        <v>982</v>
-      </c>
-      <c r="N23" s="181" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="234" t="s">
+        <v>984</v>
+      </c>
+      <c r="N23" s="238" t="s">
         <v>986</v>
       </c>
-      <c r="R23" s="5"/>
+      <c r="R23" s="172" t="s">
+        <v>143</v>
+      </c>
       <c r="S23" s="168" t="s">
         <v>464</v>
       </c>
-      <c r="T23" s="5"/>
+      <c r="T23" s="172" t="s">
+        <v>143</v>
+      </c>
       <c r="U23" s="5"/>
-      <c r="V23" s="71"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V23" s="174" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2025</v>
       </c>
@@ -59243,16 +59288,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>1058</v>
+        <v>210</v>
       </c>
       <c r="G24" s="229" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H24" s="5">
         <v>60</v>
@@ -59262,31 +59307,29 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s">
-        <v>606</v>
+        <v>146</v>
       </c>
       <c r="L24">
         <v>20</v>
       </c>
-      <c r="M24" s="164" t="s">
-        <v>984</v>
-      </c>
-      <c r="N24" s="180" t="s">
-        <v>985</v>
+      <c r="M24" s="233" t="s">
+        <v>982</v>
+      </c>
+      <c r="N24" s="238" t="s">
+        <v>986</v>
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="168" t="s">
         <v>464</v>
       </c>
-      <c r="T24" s="172" t="s">
-        <v>143</v>
-      </c>
+      <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="71"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2025</v>
       </c>
@@ -59294,16 +59337,16 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
         <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>644</v>
+        <v>1058</v>
       </c>
       <c r="G25" s="229" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H25" s="5">
         <v>60</v>
@@ -59313,33 +59356,31 @@
         <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>692</v>
+        <v>606</v>
       </c>
       <c r="L25">
-        <v>5</v>
-      </c>
-      <c r="M25" s="164" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="234" t="s">
         <v>984</v>
       </c>
-      <c r="N25" s="177" t="s">
-        <v>988</v>
-      </c>
-      <c r="R25" s="172" t="s">
-        <v>143</v>
-      </c>
+      <c r="N25" s="237" t="s">
+        <v>985</v>
+      </c>
+      <c r="R25" s="5"/>
       <c r="S25" s="168" t="s">
         <v>464</v>
       </c>
-      <c r="T25" s="5"/>
+      <c r="T25" s="172" t="s">
+        <v>143</v>
+      </c>
       <c r="U25" s="5"/>
-      <c r="V25" s="174" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V25" s="71"/>
+    </row>
+    <row r="26" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2025</v>
       </c>
@@ -59347,52 +59388,52 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>515</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>819</v>
+        <v>644</v>
       </c>
       <c r="G26" s="229" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H26" s="5">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I26" s="5">
         <f>Tabela23[[#This Row],[CH]]/15</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="K26" t="s">
-        <v>363</v>
+        <v>692</v>
       </c>
       <c r="L26">
-        <v>30</v>
-      </c>
-      <c r="M26" s="34" t="s">
-        <v>990</v>
-      </c>
-      <c r="N26" s="177" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="234" t="s">
+        <v>984</v>
+      </c>
+      <c r="N26" s="239" t="s">
         <v>988</v>
       </c>
-      <c r="R26" s="169" t="s">
-        <v>128</v>
-      </c>
-      <c r="S26" s="170" t="s">
-        <v>466</v>
+      <c r="R26" s="172" t="s">
+        <v>143</v>
+      </c>
+      <c r="S26" s="168" t="s">
+        <v>464</v>
       </c>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
-      <c r="V26" s="173" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V26" s="174" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2025</v>
       </c>
@@ -59400,13 +59441,13 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
         <v>515</v>
       </c>
       <c r="F27" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G27" s="229" t="s">
         <v>1066</v>
@@ -59419,18 +59460,18 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K27" t="s">
-        <v>1033</v>
+        <v>363</v>
       </c>
       <c r="L27">
-        <v>20</v>
-      </c>
-      <c r="M27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="174" t="s">
         <v>990</v>
       </c>
-      <c r="N27" s="177" t="s">
+      <c r="N27" s="239" t="s">
         <v>988</v>
       </c>
       <c r="R27" s="169" t="s">
@@ -59445,7 +59486,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2025</v>
       </c>
@@ -59453,52 +59494,52 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>515</v>
       </c>
       <c r="F28" t="s">
-        <v>993</v>
+        <v>821</v>
       </c>
       <c r="G28" s="229" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H28" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I28" s="5">
         <f>Tabela23[[#This Row],[CH]]/15</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s">
-        <v>323</v>
+        <v>1033</v>
       </c>
       <c r="L28">
         <v>20</v>
       </c>
-      <c r="M28" s="166" t="s">
-        <v>991</v>
-      </c>
-      <c r="N28" s="180" t="s">
-        <v>985</v>
-      </c>
-      <c r="R28" s="172" t="s">
-        <v>143</v>
-      </c>
-      <c r="S28" s="168" t="s">
-        <v>464</v>
+      <c r="M28" s="174" t="s">
+        <v>990</v>
+      </c>
+      <c r="N28" s="239" t="s">
+        <v>988</v>
+      </c>
+      <c r="R28" s="169" t="s">
+        <v>128</v>
+      </c>
+      <c r="S28" s="170" t="s">
+        <v>466</v>
       </c>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
-      <c r="V28" s="174" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V28" s="173" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2025</v>
       </c>
@@ -59506,37 +59547,37 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="F29" t="s">
-        <v>182</v>
+        <v>993</v>
       </c>
       <c r="G29" s="229" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H29" s="5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I29" s="5">
         <f>Tabela23[[#This Row],[CH]]/15</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="K29" t="s">
-        <v>1031</v>
+        <v>323</v>
       </c>
       <c r="L29">
-        <v>30</v>
-      </c>
-      <c r="M29" s="164" t="s">
-        <v>984</v>
-      </c>
-      <c r="N29" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="235" t="s">
+        <v>991</v>
+      </c>
+      <c r="N29" s="237" t="s">
         <v>985</v>
       </c>
       <c r="R29" s="172" t="s">
@@ -59545,13 +59586,13 @@
       <c r="S29" s="168" t="s">
         <v>464</v>
       </c>
-      <c r="T29" s="172" t="s">
-        <v>143</v>
-      </c>
+      <c r="T29" s="5"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="71"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V29" s="174" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2025</v>
       </c>
@@ -59559,16 +59600,16 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
         <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="G30" s="229" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H30" s="5">
         <v>60</v>
@@ -59578,21 +59619,23 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s">
-        <v>279</v>
+        <v>1031</v>
       </c>
       <c r="L30">
-        <v>20</v>
-      </c>
-      <c r="M30" s="164" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="234" t="s">
         <v>984</v>
       </c>
-      <c r="N30" s="181" t="s">
-        <v>986</v>
-      </c>
-      <c r="R30" s="5"/>
+      <c r="N30" s="237" t="s">
+        <v>985</v>
+      </c>
+      <c r="R30" s="172" t="s">
+        <v>143</v>
+      </c>
       <c r="S30" s="168" t="s">
         <v>464</v>
       </c>
@@ -59602,7 +59645,7 @@
       <c r="U30" s="5"/>
       <c r="V30" s="71"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -59610,16 +59653,16 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
         <v>119</v>
       </c>
       <c r="F31" t="s">
-        <v>1059</v>
+        <v>278</v>
       </c>
       <c r="G31" s="229" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H31" s="5">
         <v>60</v>
@@ -59629,19 +59672,19 @@
         <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="K31" t="s">
-        <v>468</v>
+        <v>279</v>
       </c>
       <c r="L31">
         <v>20</v>
       </c>
-      <c r="M31" s="165" t="s">
-        <v>982</v>
-      </c>
-      <c r="N31" s="179" t="s">
-        <v>989</v>
+      <c r="M31" s="234" t="s">
+        <v>984</v>
+      </c>
+      <c r="N31" s="238" t="s">
+        <v>986</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="168" t="s">
@@ -59653,7 +59696,7 @@
       <c r="U31" s="5"/>
       <c r="V31" s="71"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2025</v>
       </c>
@@ -59661,42 +59704,39 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
         <v>119</v>
       </c>
-      <c r="F32" t="s">
-        <v>977</v>
+      <c r="F32" s="231" t="s">
+        <v>165</v>
       </c>
       <c r="G32" s="229" t="s">
-        <v>1061</v>
+        <v>1088</v>
       </c>
       <c r="H32" s="5">
         <v>60</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="232">
         <f>Tabela23[[#This Row],[CH]]/15</f>
         <v>4</v>
       </c>
-      <c r="J32" t="s">
-        <v>191</v>
-      </c>
       <c r="K32" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="L32">
-        <v>20</v>
-      </c>
-      <c r="M32" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="233" t="s">
         <v>982</v>
       </c>
-      <c r="N32" s="181" t="s">
-        <v>986</v>
+      <c r="N32" s="239" t="s">
+        <v>988</v>
       </c>
       <c r="R32" s="5"/>
-      <c r="S32" s="168" t="s">
-        <v>464</v>
+      <c r="S32" s="170" t="s">
+        <v>502</v>
       </c>
       <c r="T32" s="172" t="s">
         <v>143</v>
@@ -59704,7 +59744,7 @@
       <c r="U32" s="5"/>
       <c r="V32" s="71"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2025</v>
       </c>
@@ -59712,16 +59752,16 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
-        <v>320</v>
+        <v>1059</v>
       </c>
       <c r="G33" s="229" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="H33" s="5">
         <v>60</v>
@@ -59731,39 +59771,160 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K33" t="s">
-        <v>321</v>
+        <v>468</v>
       </c>
       <c r="L33">
         <v>20</v>
       </c>
-      <c r="M33" s="164" t="s">
+      <c r="M33" s="233" t="s">
+        <v>982</v>
+      </c>
+      <c r="N33" s="240" t="s">
+        <v>989</v>
+      </c>
+      <c r="R33" s="5"/>
+      <c r="S33" s="168" t="s">
+        <v>464</v>
+      </c>
+      <c r="T33" s="172" t="s">
+        <v>143</v>
+      </c>
+      <c r="U33" s="5"/>
+      <c r="V33" s="71"/>
+    </row>
+    <row r="34" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2025</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>977</v>
+      </c>
+      <c r="G34" s="229" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H34" s="5">
+        <v>60</v>
+      </c>
+      <c r="I34" s="5">
+        <f>Tabela23[[#This Row],[CH]]/15</f>
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>191</v>
+      </c>
+      <c r="K34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34" s="233" t="s">
+        <v>982</v>
+      </c>
+      <c r="N34" s="238" t="s">
+        <v>986</v>
+      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="168" t="s">
+        <v>464</v>
+      </c>
+      <c r="T34" s="172" t="s">
+        <v>143</v>
+      </c>
+      <c r="U34" s="5"/>
+      <c r="V34" s="71"/>
+    </row>
+    <row r="35" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2025</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" s="229" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H35" s="5">
+        <v>60</v>
+      </c>
+      <c r="I35" s="5">
+        <f>Tabela23[[#This Row],[CH]]/15</f>
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K35" t="s">
+        <v>321</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35" s="234" t="s">
         <v>984</v>
       </c>
-      <c r="N33" s="180" t="s">
+      <c r="N35" s="237" t="s">
         <v>985</v>
       </c>
-      <c r="R33" s="169" t="s">
+      <c r="R35" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="S33" s="170" t="s">
+      <c r="S35" s="170" t="s">
         <v>466</v>
       </c>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="174" t="s">
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="174" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A2:A33">
+  <conditionalFormatting sqref="A2:A35">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B35">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -59775,7 +59936,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="C2:C35">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H35">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I1">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -59787,31 +59972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B33">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C33">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H33">
+  <conditionalFormatting sqref="I2:I35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -59823,7 +59984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1">
+  <conditionalFormatting sqref="Q1">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -59835,20 +59996,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I33">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="L2:L35">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -59860,7 +60009,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1" xr:uid="{AB95B033-872C-402C-8F3C-E8E620E3403A}"/>
+    <hyperlink ref="G17" r:id="rId1" xr:uid="{AB95B033-872C-402C-8F3C-E8E620E3403A}"/>
     <hyperlink ref="G14" r:id="rId2" xr:uid="{DACAFC14-836C-4262-8338-36988AB57684}"/>
     <hyperlink ref="G13" r:id="rId3" xr:uid="{F797BC2F-F569-4C49-ABC4-F722133E4882}"/>
     <hyperlink ref="G10" r:id="rId4" xr:uid="{577FDF27-8017-4111-B837-5EE4B7D6B9DA}"/>
@@ -59869,34 +60018,35 @@
     <hyperlink ref="G8" r:id="rId7" xr:uid="{1014D3C0-309F-4FF3-9D71-623B18CCFA01}"/>
     <hyperlink ref="G11" r:id="rId8" xr:uid="{16B89611-CCE0-464C-8A31-27E749101ADE}"/>
     <hyperlink ref="G12" r:id="rId9" xr:uid="{68CBCE15-9E14-411A-8E9F-CD2ED1A34780}"/>
-    <hyperlink ref="G17" r:id="rId10" xr:uid="{6BE9F9E1-9C34-45F9-87AA-E4EC3537E95D}"/>
-    <hyperlink ref="G18" r:id="rId11" xr:uid="{5CC9E40B-F710-4C08-B232-C3C20B20CCE2}"/>
-    <hyperlink ref="G19" r:id="rId12" xr:uid="{3E9A8B5F-0A68-4BC6-8E4A-CC71D54FD023}"/>
-    <hyperlink ref="G20" r:id="rId13" xr:uid="{DCDC91C1-473E-44D0-B913-1739A6BF72D4}"/>
-    <hyperlink ref="G21" r:id="rId14" xr:uid="{64D979BB-EBE2-4C08-8CBF-1FAA35ABCE8C}"/>
-    <hyperlink ref="G22" r:id="rId15" xr:uid="{B3EDFC6B-297B-4EA9-9671-ED17157CFCC6}"/>
-    <hyperlink ref="G23" r:id="rId16" xr:uid="{13009986-B8D1-44F3-A259-F2D075E53926}"/>
-    <hyperlink ref="G24" r:id="rId17" xr:uid="{E204E77C-B6A0-42AB-A3AC-B06383AFC856}"/>
-    <hyperlink ref="G25" r:id="rId18" xr:uid="{8C58EB09-4E9F-43D8-B414-CFC6DC36E9F1}"/>
-    <hyperlink ref="G26" r:id="rId19" xr:uid="{22738AE3-3FD6-4113-96D0-594CDC1F22E5}"/>
-    <hyperlink ref="G27" r:id="rId20" xr:uid="{1EE096F4-7A78-4A9C-8AD6-81EEA561176E}"/>
-    <hyperlink ref="G28" r:id="rId21" xr:uid="{F97E088A-6CD5-4ADD-A3AB-72D3D921D4DF}"/>
-    <hyperlink ref="G29" r:id="rId22" xr:uid="{7F04B725-4C08-4B7B-85FD-A4F779B78D83}"/>
-    <hyperlink ref="G30" r:id="rId23" xr:uid="{A8DB7CD1-870D-4C82-8851-AC43007565B3}"/>
-    <hyperlink ref="G31" r:id="rId24" xr:uid="{4B6BBDE9-2289-49CD-85CC-1EF47AB7C059}"/>
-    <hyperlink ref="G32" r:id="rId25" xr:uid="{F803A9E5-1233-4623-A2D1-2D535717FF6D}"/>
-    <hyperlink ref="G33" r:id="rId26" xr:uid="{E67BC6D6-7B5E-405D-A9C1-505E6F14C759}"/>
-    <hyperlink ref="G6" r:id="rId27" xr:uid="{E2D89466-C3A4-43EB-B6D4-6D27BC2B026A}"/>
-    <hyperlink ref="G5" r:id="rId28" xr:uid="{B3B556B2-1F30-48E0-AA92-9AAA1FC9E913}"/>
-    <hyperlink ref="G4" r:id="rId29" xr:uid="{6412494C-B4BF-4AF3-823C-519BC551EB35}"/>
-    <hyperlink ref="G3" r:id="rId30" xr:uid="{11A4546C-C6F8-4517-8496-D4E5B0564F22}"/>
-    <hyperlink ref="G2" r:id="rId31" xr:uid="{DC422B9B-499B-455F-95CD-D8A70724F59D}"/>
+    <hyperlink ref="G19" r:id="rId10" xr:uid="{5CC9E40B-F710-4C08-B232-C3C20B20CCE2}"/>
+    <hyperlink ref="G20" r:id="rId11" xr:uid="{3E9A8B5F-0A68-4BC6-8E4A-CC71D54FD023}"/>
+    <hyperlink ref="G21" r:id="rId12" xr:uid="{DCDC91C1-473E-44D0-B913-1739A6BF72D4}"/>
+    <hyperlink ref="G22" r:id="rId13" xr:uid="{64D979BB-EBE2-4C08-8CBF-1FAA35ABCE8C}"/>
+    <hyperlink ref="G23" r:id="rId14" xr:uid="{B3EDFC6B-297B-4EA9-9671-ED17157CFCC6}"/>
+    <hyperlink ref="G24" r:id="rId15" xr:uid="{13009986-B8D1-44F3-A259-F2D075E53926}"/>
+    <hyperlink ref="G25" r:id="rId16" xr:uid="{E204E77C-B6A0-42AB-A3AC-B06383AFC856}"/>
+    <hyperlink ref="G26" r:id="rId17" xr:uid="{8C58EB09-4E9F-43D8-B414-CFC6DC36E9F1}"/>
+    <hyperlink ref="G27" r:id="rId18" xr:uid="{22738AE3-3FD6-4113-96D0-594CDC1F22E5}"/>
+    <hyperlink ref="G28" r:id="rId19" xr:uid="{1EE096F4-7A78-4A9C-8AD6-81EEA561176E}"/>
+    <hyperlink ref="G29" r:id="rId20" xr:uid="{F97E088A-6CD5-4ADD-A3AB-72D3D921D4DF}"/>
+    <hyperlink ref="G30" r:id="rId21" xr:uid="{7F04B725-4C08-4B7B-85FD-A4F779B78D83}"/>
+    <hyperlink ref="G31" r:id="rId22" xr:uid="{A8DB7CD1-870D-4C82-8851-AC43007565B3}"/>
+    <hyperlink ref="G33" r:id="rId23" xr:uid="{4B6BBDE9-2289-49CD-85CC-1EF47AB7C059}"/>
+    <hyperlink ref="G34" r:id="rId24" xr:uid="{F803A9E5-1233-4623-A2D1-2D535717FF6D}"/>
+    <hyperlink ref="G35" r:id="rId25" xr:uid="{E67BC6D6-7B5E-405D-A9C1-505E6F14C759}"/>
+    <hyperlink ref="G6" r:id="rId26" xr:uid="{E2D89466-C3A4-43EB-B6D4-6D27BC2B026A}"/>
+    <hyperlink ref="G5" r:id="rId27" xr:uid="{B3B556B2-1F30-48E0-AA92-9AAA1FC9E913}"/>
+    <hyperlink ref="G4" r:id="rId28" xr:uid="{6412494C-B4BF-4AF3-823C-519BC551EB35}"/>
+    <hyperlink ref="G3" r:id="rId29" xr:uid="{11A4546C-C6F8-4517-8496-D4E5B0564F22}"/>
+    <hyperlink ref="G2" r:id="rId30" xr:uid="{DC422B9B-499B-455F-95CD-D8A70724F59D}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{F1C0A867-49E1-46C0-9A03-CFCB5C0A9651}"/>
+    <hyperlink ref="G15" r:id="rId32" xr:uid="{92DCDD44-C626-40C5-B93D-26F31A2C2959}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId32"/>
-  <legacyDrawing r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId33"/>
+  <legacyDrawing r:id="rId34"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
@@ -59908,8 +60058,8 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -60117,7 +60267,7 @@
       <c r="G11" s="197"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="195" t="s">
         <v>110</v>
@@ -60207,7 +60357,7 @@
       <c r="G16" s="200"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="198" t="s">
         <v>111</v>
